--- a/配置表/J技能配置表.xlsx
+++ b/配置表/J技能配置表.xlsx
@@ -84,7 +84,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335">
   <si>
     <t>SkillConfig</t>
   </si>
@@ -207,133 +207,136 @@
     <t>普通近战攻击</t>
   </si>
   <si>
+    <t>aliAttack</t>
+  </si>
+  <si>
+    <t>attack</t>
+  </si>
+  <si>
+    <t>laserShoot</t>
+  </si>
+  <si>
+    <t>paoDan3</t>
+  </si>
+  <si>
+    <t>普通远程攻击</t>
+  </si>
+  <si>
+    <t>bowAndArrow</t>
+  </si>
+  <si>
+    <t>战士普通攻击</t>
+  </si>
+  <si>
+    <t>singleAttack</t>
+  </si>
+  <si>
+    <t>枪械师普通攻击</t>
+  </si>
+  <si>
+    <t>rslash_1</t>
+  </si>
+  <si>
+    <t>炼金术师普通攻击</t>
+  </si>
+  <si>
+    <t>潜杀者普通攻击</t>
+  </si>
+  <si>
+    <t>冲击技能</t>
+  </si>
+  <si>
+    <t>skill_bighit</t>
+  </si>
+  <si>
+    <t>needles</t>
+  </si>
+  <si>
+    <t>发动全力猛烈向前一冲</t>
+  </si>
+  <si>
+    <t>dash</t>
+  </si>
+  <si>
+    <t>criticalhit1</t>
+  </si>
+  <si>
+    <t>重劈</t>
+  </si>
+  <si>
+    <t>skill_dualwield</t>
+  </si>
+  <si>
+    <t>burst</t>
+  </si>
+  <si>
+    <t>跳起之后，向下雷霆一击</t>
+  </si>
+  <si>
+    <t>criticalhit2</t>
+  </si>
+  <si>
+    <t>回旋</t>
+  </si>
+  <si>
+    <t>skill_chainvortex</t>
+  </si>
+  <si>
+    <t>chains</t>
+  </si>
+  <si>
+    <t>special_xuanlongsha</t>
+  </si>
+  <si>
+    <t>快速旋转，带动空气杀人</t>
+  </si>
+  <si>
+    <t>chainswing</t>
+  </si>
+  <si>
+    <t>criticalhit3</t>
+  </si>
+  <si>
+    <t>直线地震</t>
+  </si>
+  <si>
+    <t>skill_seismicburst</t>
+  </si>
+  <si>
+    <t>special_liedijue</t>
+  </si>
+  <si>
+    <t>在自己前方召唤出地泉，攻击敌人</t>
+  </si>
+  <si>
+    <t>slashing_swing</t>
+  </si>
+  <si>
+    <t>slamshockwave</t>
+  </si>
+  <si>
+    <t>弹射技能</t>
+  </si>
+  <si>
+    <t>skill_ricochet</t>
+  </si>
+  <si>
+    <t>ricochet</t>
+  </si>
+  <si>
+    <t>飞镖</t>
+  </si>
+  <si>
+    <t>skill_needlearc</t>
+  </si>
+  <si>
+    <t>爆裂新星</t>
+  </si>
+  <si>
+    <t>skill_explosiveshot</t>
+  </si>
+  <si>
     <t>explosive</t>
-  </si>
-  <si>
-    <t>attack</t>
-  </si>
-  <si>
-    <t>laserShoot</t>
-  </si>
-  <si>
-    <t>paoDan3</t>
-  </si>
-  <si>
-    <t>普通远程攻击</t>
-  </si>
-  <si>
-    <t>bowAndArrow</t>
-  </si>
-  <si>
-    <t>战士普通攻击</t>
-  </si>
-  <si>
-    <t>singleAttack</t>
-  </si>
-  <si>
-    <t>枪械师普通攻击</t>
-  </si>
-  <si>
-    <t>rslash_1</t>
-  </si>
-  <si>
-    <t>炼金术师普通攻击</t>
-  </si>
-  <si>
-    <t>潜杀者普通攻击</t>
-  </si>
-  <si>
-    <t>冲击技能</t>
-  </si>
-  <si>
-    <t>skill_bighit</t>
-  </si>
-  <si>
-    <t>needles</t>
-  </si>
-  <si>
-    <t>发动全力猛烈向前一冲</t>
-  </si>
-  <si>
-    <t>dash</t>
-  </si>
-  <si>
-    <t>criticalhit1</t>
-  </si>
-  <si>
-    <t>重劈</t>
-  </si>
-  <si>
-    <t>skill_dualwield</t>
-  </si>
-  <si>
-    <t>burst</t>
-  </si>
-  <si>
-    <t>跳起之后，向下雷霆一击</t>
-  </si>
-  <si>
-    <t>criticalhit2</t>
-  </si>
-  <si>
-    <t>回旋</t>
-  </si>
-  <si>
-    <t>skill_chainvortex</t>
-  </si>
-  <si>
-    <t>chains</t>
-  </si>
-  <si>
-    <t>special_xuanlongsha</t>
-  </si>
-  <si>
-    <t>快速旋转，带动空气杀人</t>
-  </si>
-  <si>
-    <t>chainswing</t>
-  </si>
-  <si>
-    <t>criticalhit3</t>
-  </si>
-  <si>
-    <t>直线地震</t>
-  </si>
-  <si>
-    <t>skill_seismicburst</t>
-  </si>
-  <si>
-    <t>special_liedijue</t>
-  </si>
-  <si>
-    <t>在自己前方召唤出地泉，攻击敌人</t>
-  </si>
-  <si>
-    <t>slashing_swing</t>
-  </si>
-  <si>
-    <t>slamshockwave</t>
-  </si>
-  <si>
-    <t>弹射技能</t>
-  </si>
-  <si>
-    <t>skill_ricochet</t>
-  </si>
-  <si>
-    <t>ricochet</t>
-  </si>
-  <si>
-    <t>飞镖</t>
-  </si>
-  <si>
-    <t>skill_needlearc</t>
-  </si>
-  <si>
-    <t>爆裂新星</t>
-  </si>
-  <si>
-    <t>skill_explosiveshot</t>
   </si>
   <si>
     <t>special_longpao</t>
@@ -978,10 +981,16 @@
     <t>阿狸攻击技能</t>
   </si>
   <si>
-    <t>aliAttack</t>
-  </si>
-  <si>
     <t>Basic</t>
+  </si>
+  <si>
+    <t>阿狸技能1-小火球</t>
+  </si>
+  <si>
+    <t>aliSkill1</t>
+  </si>
+  <si>
+    <t>AbilityR</t>
   </si>
   <si>
     <t>SkillEffectConfig</t>
@@ -1140,11 +1149,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1156,48 +1165,6 @@
       <color indexed="9"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1217,6 +1184,20 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -1231,14 +1212,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1253,6 +1234,30 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -1260,16 +1265,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1278,7 +1289,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1291,9 +1302,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1344,7 +1363,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1362,7 +1381,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1374,7 +1405,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1386,13 +1471,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1410,37 +1525,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1453,78 +1544,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1566,21 +1585,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1601,16 +1605,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1620,7 +1624,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1640,174 +1644,195 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="47">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1865,14 +1890,11 @@
     <xf numFmtId="49" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="47">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
     <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
@@ -1883,43 +1905,45 @@
     <cellStyle name="差" xfId="7" builtinId="27"/>
     <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
     <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="百分比" xfId="10" builtinId="5"/>
-    <cellStyle name="注释" xfId="11" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="12" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="13" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="14" builtinId="11"/>
-    <cellStyle name="标题" xfId="15" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="16" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="17" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="18" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="19" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="20" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="21" builtinId="44"/>
-    <cellStyle name="输出" xfId="22" builtinId="21"/>
-    <cellStyle name="计算" xfId="23" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="24" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="25" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="26" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="27" builtinId="24"/>
-    <cellStyle name="汇总" xfId="28" builtinId="25"/>
-    <cellStyle name="好" xfId="29" builtinId="26"/>
-    <cellStyle name="适中" xfId="30" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="31" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="32" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="33" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="34" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="35" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="36" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="37" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="38" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="39" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="40" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="42" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="43" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="44" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="45" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="46" builtinId="52"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -1933,7 +1957,6 @@
       </fill>
     </dxf>
     <dxf>
-      <font/>
       <fill>
         <patternFill patternType="none"/>
       </fill>
@@ -2278,12 +2301,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:R110"/>
+  <dimension ref="A1:R111"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J110" sqref="J110"/>
+      <selection pane="bottomLeft" activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="13.5"/>
@@ -2982,10 +3005,10 @@
         <v>82</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>40</v>
+        <v>83</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K19" s="7">
         <v>1000</v>
@@ -3010,7 +3033,7 @@
         <v>11</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E20" s="7">
         <v>-1</v>
@@ -3022,10 +3045,10 @@
         <v>0</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>49</v>
@@ -3049,7 +3072,7 @@
         <v>12</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E21" s="7">
         <v>-1</v>
@@ -3060,7 +3083,7 @@
       </c>
       <c r="H21" s="7"/>
       <c r="I21" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>41</v>
@@ -3084,7 +3107,7 @@
         <v>13</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E22" s="7">
         <v>-1</v>
@@ -3095,7 +3118,7 @@
       </c>
       <c r="H22" s="7"/>
       <c r="I22" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J22" s="7"/>
       <c r="K22" s="7">
@@ -3117,7 +3140,7 @@
         <v>14</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E23" s="7">
         <v>-1</v>
@@ -3129,10 +3152,10 @@
         <v>0</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>49</v>
@@ -3156,7 +3179,7 @@
         <v>15</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E24" s="7">
         <v>-1</v>
@@ -3168,10 +3191,10 @@
         <v>0</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I24" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>49</v>
@@ -3181,7 +3204,7 @@
       </c>
       <c r="L24" s="7"/>
       <c r="M24" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="N24" s="7">
         <v>5000</v>
@@ -3199,7 +3222,7 @@
         <v>16</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E25" s="7">
         <v>-1</v>
@@ -3211,10 +3234,10 @@
         <v>20000</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="J25" s="7" t="s">
         <v>49</v>
@@ -3238,7 +3261,7 @@
         <v>17</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E26" s="7">
         <v>-1</v>
@@ -3250,10 +3273,10 @@
         <v>0</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I26" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="J26" s="7" t="s">
         <v>49</v>
@@ -3277,7 +3300,7 @@
         <v>18</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E27" s="7">
         <v>-1</v>
@@ -3288,7 +3311,7 @@
       </c>
       <c r="H27" s="7"/>
       <c r="I27" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>41</v>
@@ -3313,7 +3336,7 @@
         <v>19</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E28" s="17">
         <v>-1</v>
@@ -3324,7 +3347,7 @@
       </c>
       <c r="H28" s="17"/>
       <c r="I28" s="17" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="J28" s="17" t="s">
         <v>41</v>
@@ -3350,7 +3373,7 @@
         <v>20</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E29" s="7">
         <v>-1</v>
@@ -3361,10 +3384,10 @@
       </c>
       <c r="H29" s="7"/>
       <c r="I29" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K29" s="7">
         <v>1000</v>
@@ -3385,7 +3408,7 @@
         <v>21</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E30" s="7">
         <v>-1</v>
@@ -3396,10 +3419,10 @@
       </c>
       <c r="H30" s="7"/>
       <c r="I30" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K30" s="7">
         <v>1000</v>
@@ -3420,7 +3443,7 @@
         <v>22</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E31" s="7">
         <v>-1</v>
@@ -3431,10 +3454,10 @@
       </c>
       <c r="H31" s="7"/>
       <c r="I31" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K31" s="7">
         <v>1000</v>
@@ -3455,7 +3478,7 @@
         <v>23</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E32" s="7">
         <v>-1</v>
@@ -3466,10 +3489,10 @@
       </c>
       <c r="H32" s="7"/>
       <c r="I32" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K32" s="7">
         <v>1000</v>
@@ -3490,7 +3513,7 @@
         <v>24</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E33" s="7">
         <v>-1</v>
@@ -3501,10 +3524,10 @@
       </c>
       <c r="H33" s="7"/>
       <c r="I33" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K33" s="7">
         <v>1000</v>
@@ -3525,7 +3548,7 @@
         <v>25</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E34" s="7">
         <v>-1</v>
@@ -3536,10 +3559,10 @@
       </c>
       <c r="H34" s="7"/>
       <c r="I34" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K34" s="7">
         <v>1000</v>
@@ -3560,7 +3583,7 @@
         <v>26</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E35" s="7">
         <v>-1</v>
@@ -3595,7 +3618,7 @@
         <v>27</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E36" s="7">
         <v>-1</v>
@@ -3606,7 +3629,7 @@
       </c>
       <c r="H36" s="7"/>
       <c r="I36" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="J36" s="7" t="s">
         <v>41</v>
@@ -3630,7 +3653,7 @@
         <v>100</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E37" s="7">
         <v>-1</v>
@@ -3641,10 +3664,10 @@
       </c>
       <c r="H37" s="7"/>
       <c r="I37" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K37" s="7">
         <v>1000</v>
@@ -3665,7 +3688,7 @@
         <v>101</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E38" s="7">
         <v>-1</v>
@@ -3676,7 +3699,7 @@
       </c>
       <c r="H38" s="7"/>
       <c r="I38" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="J38" s="7" t="s">
         <v>41</v>
@@ -3700,7 +3723,7 @@
         <v>102</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E39" s="7">
         <v>-1</v>
@@ -3711,7 +3734,7 @@
       </c>
       <c r="H39" s="7"/>
       <c r="I39" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="J39" s="7" t="s">
         <v>41</v>
@@ -3735,7 +3758,7 @@
         <v>103</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E40" s="7">
         <v>-1</v>
@@ -3747,10 +3770,10 @@
         <v>0</v>
       </c>
       <c r="H40" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I40" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="J40" s="7" t="s">
         <v>49</v>
@@ -3774,7 +3797,7 @@
         <v>104</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E41" s="7">
         <v>-1</v>
@@ -3785,7 +3808,7 @@
       </c>
       <c r="H41" s="7"/>
       <c r="I41" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="J41" s="7" t="s">
         <v>41</v>
@@ -3809,7 +3832,7 @@
         <v>105</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E42" s="7">
         <v>-1</v>
@@ -3820,7 +3843,7 @@
       </c>
       <c r="H42" s="7"/>
       <c r="I42" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="J42" s="7" t="s">
         <v>41</v>
@@ -3844,7 +3867,7 @@
         <v>106</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E43" s="7">
         <v>-1</v>
@@ -3856,20 +3879,20 @@
         <v>0</v>
       </c>
       <c r="H43" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I43" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K43" s="7">
         <v>2000</v>
       </c>
       <c r="L43" s="7"/>
       <c r="M43" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="N43" s="7">
         <v>5000</v>
@@ -3887,7 +3910,7 @@
         <v>107</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E44" s="7">
         <v>-1</v>
@@ -3898,17 +3921,17 @@
       </c>
       <c r="H44" s="7"/>
       <c r="I44" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K44" s="7">
         <v>2000</v>
       </c>
       <c r="L44" s="7"/>
       <c r="M44" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="N44" s="7">
         <v>5000</v>
@@ -3926,7 +3949,7 @@
         <v>108</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E45" s="7">
         <v>-1</v>
@@ -3938,10 +3961,10 @@
         <v>20000</v>
       </c>
       <c r="H45" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I45" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="J45" s="7" t="s">
         <v>41</v>
@@ -3951,7 +3974,7 @@
       </c>
       <c r="L45" s="7"/>
       <c r="M45" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="N45" s="7">
         <v>5000</v>
@@ -3960,7 +3983,7 @@
         <v>0</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="46" spans="2:16">
@@ -3969,7 +3992,7 @@
         <v>109</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E46" s="7">
         <v>-1</v>
@@ -3980,7 +4003,7 @@
       </c>
       <c r="H46" s="7"/>
       <c r="I46" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="J46" s="7" t="s">
         <v>41</v>
@@ -3990,7 +4013,7 @@
       </c>
       <c r="L46" s="7"/>
       <c r="M46" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="N46" s="7">
         <v>5000</v>
@@ -3999,7 +4022,7 @@
         <v>0</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="47" spans="2:16">
@@ -4008,7 +4031,7 @@
         <v>110</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E47" s="7">
         <v>-1</v>
@@ -4019,7 +4042,7 @@
       </c>
       <c r="H47" s="7"/>
       <c r="I47" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="J47" s="7" t="s">
         <v>41</v>
@@ -4029,7 +4052,7 @@
       </c>
       <c r="L47" s="7"/>
       <c r="M47" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="N47" s="7">
         <v>5000</v>
@@ -4038,7 +4061,7 @@
         <v>0</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="48" spans="2:16">
@@ -4047,7 +4070,7 @@
         <v>111</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E48" s="7">
         <v>-1</v>
@@ -4058,7 +4081,7 @@
       </c>
       <c r="H48" s="7"/>
       <c r="I48" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="J48" s="7" t="s">
         <v>49</v>
@@ -4068,7 +4091,7 @@
       </c>
       <c r="L48" s="7"/>
       <c r="M48" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="N48" s="7">
         <v>5000</v>
@@ -4086,7 +4109,7 @@
         <v>112</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E49" s="7">
         <v>-1</v>
@@ -4097,7 +4120,7 @@
       </c>
       <c r="H49" s="7"/>
       <c r="I49" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="J49" s="7" t="s">
         <v>41</v>
@@ -4107,7 +4130,7 @@
       </c>
       <c r="L49" s="7"/>
       <c r="M49" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="N49" s="7">
         <v>5000</v>
@@ -4123,7 +4146,7 @@
         <v>113</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E50" s="7">
         <v>-1</v>
@@ -4134,7 +4157,7 @@
       </c>
       <c r="H50" s="7"/>
       <c r="I50" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="J50" s="7" t="s">
         <v>41</v>
@@ -4143,10 +4166,10 @@
         <v>1000</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M50" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="N50" s="7">
         <v>5000</v>
@@ -4155,7 +4178,7 @@
         <v>0</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="51" spans="2:16">
@@ -4164,7 +4187,7 @@
         <v>114</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E51" s="7">
         <v>-1</v>
@@ -4176,20 +4199,20 @@
         <v>0</v>
       </c>
       <c r="H51" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I51" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K51" s="7">
         <v>1500</v>
       </c>
       <c r="L51" s="7"/>
       <c r="M51" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="N51" s="7">
         <v>5000</v>
@@ -4207,7 +4230,7 @@
         <v>115</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E52" s="7">
         <v>-1</v>
@@ -4218,17 +4241,17 @@
       </c>
       <c r="H52" s="7"/>
       <c r="I52" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K52" s="7">
         <v>2000</v>
       </c>
       <c r="L52" s="7"/>
       <c r="M52" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="N52" s="7">
         <v>5000</v>
@@ -4246,7 +4269,7 @@
         <v>116</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E53" s="7">
         <v>-1</v>
@@ -4257,7 +4280,7 @@
       </c>
       <c r="H53" s="7"/>
       <c r="I53" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="J53" s="7" t="s">
         <v>41</v>
@@ -4267,7 +4290,7 @@
       </c>
       <c r="L53" s="7"/>
       <c r="M53" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="N53" s="7">
         <v>5000</v>
@@ -4276,7 +4299,7 @@
         <v>0</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="54" spans="2:16">
@@ -4285,7 +4308,7 @@
         <v>117</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E54" s="7">
         <v>-1</v>
@@ -4296,7 +4319,7 @@
       </c>
       <c r="H54" s="7"/>
       <c r="I54" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="J54" s="7" t="s">
         <v>41</v>
@@ -4306,7 +4329,7 @@
       </c>
       <c r="L54" s="7"/>
       <c r="M54" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="N54" s="7">
         <v>5000</v>
@@ -4315,7 +4338,7 @@
         <v>0</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="55" spans="2:16">
@@ -4324,7 +4347,7 @@
         <v>118</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E55" s="7">
         <v>-1</v>
@@ -4335,7 +4358,7 @@
       </c>
       <c r="H55" s="7"/>
       <c r="I55" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="J55" s="7" t="s">
         <v>41</v>
@@ -4345,7 +4368,7 @@
       </c>
       <c r="L55" s="7"/>
       <c r="M55" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="N55" s="7">
         <v>5000</v>
@@ -4354,7 +4377,7 @@
         <v>0</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="56" spans="2:16">
@@ -4363,7 +4386,7 @@
         <v>119</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E56" s="7">
         <v>-1</v>
@@ -4374,7 +4397,7 @@
       </c>
       <c r="H56" s="7"/>
       <c r="I56" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="J56" s="7" t="s">
         <v>41</v>
@@ -4384,7 +4407,7 @@
       </c>
       <c r="L56" s="7"/>
       <c r="M56" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="N56" s="7">
         <v>5000</v>
@@ -4393,7 +4416,7 @@
         <v>0</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="57" spans="2:16">
@@ -4402,7 +4425,7 @@
         <v>120</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E57" s="7">
         <v>-1</v>
@@ -4413,7 +4436,7 @@
       </c>
       <c r="H57" s="7"/>
       <c r="I57" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="J57" s="7" t="s">
         <v>41</v>
@@ -4423,7 +4446,7 @@
       </c>
       <c r="L57" s="7"/>
       <c r="M57" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="N57" s="7">
         <v>5000</v>
@@ -4432,7 +4455,7 @@
         <v>0</v>
       </c>
       <c r="P57" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="58" spans="2:16">
@@ -4441,7 +4464,7 @@
         <v>121</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E58" s="7">
         <v>-1</v>
@@ -4452,7 +4475,7 @@
       </c>
       <c r="H58" s="7"/>
       <c r="I58" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="J58" s="7" t="s">
         <v>41</v>
@@ -4480,7 +4503,7 @@
         <v>122</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E59" s="7">
         <v>-1</v>
@@ -4491,7 +4514,7 @@
       </c>
       <c r="H59" s="7"/>
       <c r="I59" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J59" s="7" t="s">
         <v>41</v>
@@ -4501,7 +4524,7 @@
       </c>
       <c r="L59" s="7"/>
       <c r="M59" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="N59" s="7">
         <v>5000</v>
@@ -4519,7 +4542,7 @@
         <v>123</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E60" s="7">
         <v>-1</v>
@@ -4530,7 +4553,7 @@
       </c>
       <c r="H60" s="7"/>
       <c r="I60" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="J60" s="7" t="s">
         <v>41</v>
@@ -4540,7 +4563,7 @@
       </c>
       <c r="L60" s="7"/>
       <c r="M60" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="N60" s="7">
         <v>5000</v>
@@ -4558,7 +4581,7 @@
         <v>124</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E61" s="7">
         <v>-1</v>
@@ -4569,17 +4592,17 @@
       </c>
       <c r="H61" s="7"/>
       <c r="I61" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="J61" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K61" s="7">
         <v>1000</v>
       </c>
       <c r="L61" s="7"/>
       <c r="M61" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="N61" s="7">
         <v>5000</v>
@@ -4597,7 +4620,7 @@
         <v>125</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E62" s="7">
         <v>-1</v>
@@ -4608,7 +4631,7 @@
       </c>
       <c r="H62" s="7"/>
       <c r="I62" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="J62" s="7" t="s">
         <v>41</v>
@@ -4617,10 +4640,10 @@
         <v>1000</v>
       </c>
       <c r="L62" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M62" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="N62" s="7">
         <v>5000</v>
@@ -4638,7 +4661,7 @@
         <v>126</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E63" s="7">
         <v>-1</v>
@@ -4649,7 +4672,7 @@
       </c>
       <c r="H63" s="7"/>
       <c r="I63" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="J63" s="7" t="s">
         <v>41</v>
@@ -4658,10 +4681,10 @@
         <v>1000</v>
       </c>
       <c r="L63" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="M63" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="N63" s="7">
         <v>5000</v>
@@ -4679,7 +4702,7 @@
         <v>127</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E64" s="7">
         <v>-1</v>
@@ -4690,7 +4713,7 @@
       </c>
       <c r="H64" s="7"/>
       <c r="I64" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="J64" s="7" t="s">
         <v>41</v>
@@ -4700,7 +4723,7 @@
       </c>
       <c r="L64" s="7"/>
       <c r="M64" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="N64" s="7">
         <v>5000</v>
@@ -4718,7 +4741,7 @@
         <v>128</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E65" s="7">
         <v>-1</v>
@@ -4729,7 +4752,7 @@
       </c>
       <c r="H65" s="7"/>
       <c r="I65" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="J65" s="7" t="s">
         <v>41</v>
@@ -4739,7 +4762,7 @@
       </c>
       <c r="L65" s="7"/>
       <c r="M65" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="N65" s="7">
         <v>5000</v>
@@ -4757,7 +4780,7 @@
         <v>129</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E66" s="7">
         <v>-1</v>
@@ -4768,7 +4791,7 @@
       </c>
       <c r="H66" s="7"/>
       <c r="I66" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="J66" s="7" t="s">
         <v>41</v>
@@ -4778,7 +4801,7 @@
       </c>
       <c r="L66" s="7"/>
       <c r="M66" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="N66" s="7">
         <v>5000</v>
@@ -4796,7 +4819,7 @@
         <v>130</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E67" s="7">
         <v>-1</v>
@@ -4807,7 +4830,7 @@
       </c>
       <c r="H67" s="7"/>
       <c r="I67" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="J67" s="7" t="s">
         <v>41</v>
@@ -4817,7 +4840,7 @@
       </c>
       <c r="L67" s="7"/>
       <c r="M67" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="N67" s="7">
         <v>5000</v>
@@ -4826,7 +4849,7 @@
         <v>0</v>
       </c>
       <c r="P67" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="68" spans="2:16">
@@ -4835,7 +4858,7 @@
         <v>131</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E68" s="7">
         <v>-1</v>
@@ -4846,7 +4869,7 @@
       </c>
       <c r="H68" s="7"/>
       <c r="I68" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="J68" s="7" t="s">
         <v>41</v>
@@ -4863,7 +4886,7 @@
         <v>0</v>
       </c>
       <c r="P68" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="69" spans="2:16">
@@ -4872,7 +4895,7 @@
         <v>132</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E69" s="7">
         <v>-1</v>
@@ -4884,10 +4907,10 @@
         <v>20000</v>
       </c>
       <c r="H69" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I69" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J69" s="7" t="s">
         <v>41</v>
@@ -4896,10 +4919,10 @@
         <v>1000</v>
       </c>
       <c r="L69" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="M69" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="N69" s="7">
         <v>5000</v>
@@ -4908,7 +4931,7 @@
         <v>0</v>
       </c>
       <c r="P69" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="70" spans="2:16">
@@ -4917,7 +4940,7 @@
         <v>133</v>
       </c>
       <c r="D70" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E70" s="7">
         <v>-1</v>
@@ -4928,7 +4951,7 @@
       </c>
       <c r="H70" s="7"/>
       <c r="I70" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="J70" s="7" t="s">
         <v>41</v>
@@ -4938,7 +4961,7 @@
       </c>
       <c r="L70" s="7"/>
       <c r="M70" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="N70" s="7">
         <v>5000</v>
@@ -4947,7 +4970,7 @@
         <v>0</v>
       </c>
       <c r="P70" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="71" spans="2:16">
@@ -4956,7 +4979,7 @@
         <v>134</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E71" s="7">
         <v>-1</v>
@@ -4967,17 +4990,17 @@
       </c>
       <c r="H71" s="7"/>
       <c r="I71" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="J71" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K71" s="7">
         <v>3000</v>
       </c>
       <c r="L71" s="7"/>
       <c r="M71" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="N71" s="7">
         <v>5000</v>
@@ -4995,7 +5018,7 @@
         <v>135</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E72" s="7">
         <v>-1</v>
@@ -5006,7 +5029,7 @@
       </c>
       <c r="H72" s="7"/>
       <c r="I72" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="J72" s="7" t="s">
         <v>41</v>
@@ -5016,7 +5039,7 @@
       </c>
       <c r="L72" s="7"/>
       <c r="M72" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="N72" s="7">
         <v>5000</v>
@@ -5032,7 +5055,7 @@
         <v>136</v>
       </c>
       <c r="D73" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E73" s="7">
         <v>-1</v>
@@ -5044,10 +5067,10 @@
         <v>0</v>
       </c>
       <c r="H73" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I73" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="J73" s="7" t="s">
         <v>41</v>
@@ -5071,7 +5094,7 @@
         <v>137</v>
       </c>
       <c r="D74" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E74" s="7">
         <v>-1</v>
@@ -5082,7 +5105,7 @@
       </c>
       <c r="H74" s="7"/>
       <c r="I74" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="J74" s="7" t="s">
         <v>41</v>
@@ -5092,7 +5115,7 @@
       </c>
       <c r="L74" s="7"/>
       <c r="M74" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="N74" s="7">
         <v>5000</v>
@@ -5110,7 +5133,7 @@
         <v>138</v>
       </c>
       <c r="D75" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E75" s="7">
         <v>-1</v>
@@ -5121,7 +5144,7 @@
       </c>
       <c r="H75" s="7"/>
       <c r="I75" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="J75" s="7" t="s">
         <v>41</v>
@@ -5131,7 +5154,7 @@
       </c>
       <c r="L75" s="7"/>
       <c r="M75" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="N75" s="7">
         <v>5000</v>
@@ -5140,7 +5163,7 @@
         <v>0</v>
       </c>
       <c r="P75" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="76" spans="2:16">
@@ -5149,7 +5172,7 @@
         <v>139</v>
       </c>
       <c r="D76" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E76" s="7">
         <v>-1</v>
@@ -5160,7 +5183,7 @@
       </c>
       <c r="H76" s="7"/>
       <c r="I76" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="J76" s="7" t="s">
         <v>41</v>
@@ -5170,7 +5193,7 @@
       </c>
       <c r="L76" s="7"/>
       <c r="M76" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="N76" s="7">
         <v>5000</v>
@@ -5179,7 +5202,7 @@
         <v>0</v>
       </c>
       <c r="P76" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="77" spans="2:16">
@@ -5188,7 +5211,7 @@
         <v>140</v>
       </c>
       <c r="D77" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E77" s="7">
         <v>-1</v>
@@ -5199,7 +5222,7 @@
       </c>
       <c r="H77" s="7"/>
       <c r="I77" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="J77" s="7" t="s">
         <v>41</v>
@@ -5209,7 +5232,7 @@
       </c>
       <c r="L77" s="7"/>
       <c r="M77" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="N77" s="7">
         <v>5000</v>
@@ -5218,7 +5241,7 @@
         <v>0</v>
       </c>
       <c r="P77" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="78" spans="2:16">
@@ -5227,7 +5250,7 @@
         <v>141</v>
       </c>
       <c r="D78" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E78" s="7">
         <v>-1</v>
@@ -5238,7 +5261,7 @@
       </c>
       <c r="H78" s="7"/>
       <c r="I78" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="J78" s="7" t="s">
         <v>41</v>
@@ -5266,7 +5289,7 @@
         <v>142</v>
       </c>
       <c r="D79" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E79" s="7">
         <v>-1</v>
@@ -5277,7 +5300,7 @@
       </c>
       <c r="H79" s="7"/>
       <c r="I79" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J79" s="7" t="s">
         <v>41</v>
@@ -5294,7 +5317,7 @@
         <v>0</v>
       </c>
       <c r="P79" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="80" spans="2:16">
@@ -5303,7 +5326,7 @@
         <v>143</v>
       </c>
       <c r="D80" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E80" s="7">
         <v>-1</v>
@@ -5315,10 +5338,10 @@
         <v>0</v>
       </c>
       <c r="H80" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I80" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="J80" s="7" t="s">
         <v>49</v>
@@ -5328,7 +5351,7 @@
       </c>
       <c r="L80" s="7"/>
       <c r="M80" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="N80" s="7">
         <v>5000</v>
@@ -5346,7 +5369,7 @@
         <v>144</v>
       </c>
       <c r="D81" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E81" s="7">
         <v>-1</v>
@@ -5357,7 +5380,7 @@
       </c>
       <c r="H81" s="7"/>
       <c r="I81" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="J81" s="7" t="s">
         <v>41</v>
@@ -5367,7 +5390,7 @@
       </c>
       <c r="L81" s="7"/>
       <c r="M81" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="N81" s="7">
         <v>5000</v>
@@ -5376,7 +5399,7 @@
         <v>0</v>
       </c>
       <c r="P81" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="82" spans="2:16">
@@ -5385,7 +5408,7 @@
         <v>145</v>
       </c>
       <c r="D82" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E82" s="7">
         <v>-1</v>
@@ -5396,7 +5419,7 @@
       </c>
       <c r="H82" s="7"/>
       <c r="I82" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="J82" s="7" t="s">
         <v>41</v>
@@ -5420,7 +5443,7 @@
         <v>146</v>
       </c>
       <c r="D83" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E83" s="7">
         <v>-1</v>
@@ -5431,7 +5454,7 @@
       </c>
       <c r="H83" s="7"/>
       <c r="I83" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="J83" s="7" t="s">
         <v>41</v>
@@ -5455,7 +5478,7 @@
         <v>147</v>
       </c>
       <c r="D84" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E84" s="7">
         <v>-1</v>
@@ -5466,7 +5489,7 @@
       </c>
       <c r="H84" s="7"/>
       <c r="I84" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="J84" s="7" t="s">
         <v>41</v>
@@ -5476,7 +5499,7 @@
       </c>
       <c r="L84" s="7"/>
       <c r="M84" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="N84" s="7">
         <v>5000</v>
@@ -5485,7 +5508,7 @@
         <v>0</v>
       </c>
       <c r="P84" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="85" ht="12.95" customHeight="1" spans="2:16">
@@ -5494,7 +5517,7 @@
         <v>148</v>
       </c>
       <c r="D85" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E85" s="7">
         <v>-1</v>
@@ -5505,7 +5528,7 @@
       </c>
       <c r="H85" s="7"/>
       <c r="I85" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="J85" s="7" t="s">
         <v>41</v>
@@ -5515,7 +5538,7 @@
       </c>
       <c r="L85" s="7"/>
       <c r="M85" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="N85" s="7">
         <v>5000</v>
@@ -5524,7 +5547,7 @@
         <v>0</v>
       </c>
       <c r="P85" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="86" spans="2:16">
@@ -5533,7 +5556,7 @@
         <v>149</v>
       </c>
       <c r="D86" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E86" s="7">
         <v>-1</v>
@@ -5544,7 +5567,7 @@
       </c>
       <c r="H86" s="7"/>
       <c r="I86" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J86" s="7" t="s">
         <v>49</v>
@@ -5553,10 +5576,10 @@
         <v>1000</v>
       </c>
       <c r="L86" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M86" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="N86" s="7">
         <v>5000</v>
@@ -5565,7 +5588,7 @@
         <v>0</v>
       </c>
       <c r="P86" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="87" spans="2:16">
@@ -5574,7 +5597,7 @@
         <v>150</v>
       </c>
       <c r="D87" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E87" s="7">
         <v>-1</v>
@@ -5585,7 +5608,7 @@
       </c>
       <c r="H87" s="7"/>
       <c r="I87" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="J87" s="7" t="s">
         <v>49</v>
@@ -5595,7 +5618,7 @@
       </c>
       <c r="L87" s="7"/>
       <c r="M87" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="N87" s="7">
         <v>5000</v>
@@ -5604,7 +5627,7 @@
         <v>0</v>
       </c>
       <c r="P87" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="88" spans="2:16">
@@ -5613,7 +5636,7 @@
         <v>151</v>
       </c>
       <c r="D88" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E88" s="7">
         <v>-1</v>
@@ -5624,7 +5647,7 @@
       </c>
       <c r="H88" s="7"/>
       <c r="I88" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="J88" s="7"/>
       <c r="K88" s="7">
@@ -5632,7 +5655,7 @@
       </c>
       <c r="L88" s="7"/>
       <c r="M88" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="N88" s="7">
         <v>5000</v>
@@ -5641,7 +5664,7 @@
         <v>0</v>
       </c>
       <c r="P88" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="89" spans="2:16">
@@ -5649,8 +5672,8 @@
       <c r="C89" s="7">
         <v>152</v>
       </c>
-      <c r="D89" s="21" t="s">
-        <v>237</v>
+      <c r="D89" s="14" t="s">
+        <v>238</v>
       </c>
       <c r="E89" s="7">
         <v>-1</v>
@@ -5660,8 +5683,8 @@
         <v>0</v>
       </c>
       <c r="H89" s="7"/>
-      <c r="I89" s="21" t="s">
-        <v>238</v>
+      <c r="I89" s="14" t="s">
+        <v>239</v>
       </c>
       <c r="J89" s="7"/>
       <c r="K89" s="7">
@@ -5669,7 +5692,7 @@
       </c>
       <c r="L89" s="7"/>
       <c r="M89" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="N89" s="7">
         <v>5000</v>
@@ -5678,7 +5701,7 @@
         <v>0</v>
       </c>
       <c r="P89" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="90" spans="2:16">
@@ -5687,7 +5710,7 @@
         <v>153</v>
       </c>
       <c r="D90" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E90" s="7">
         <v>-1</v>
@@ -5701,8 +5724,8 @@
       <c r="H90" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="I90" s="21" t="s">
-        <v>240</v>
+      <c r="I90" s="14" t="s">
+        <v>241</v>
       </c>
       <c r="J90" s="7" t="s">
         <v>49</v>
@@ -5731,8 +5754,8 @@
       <c r="C91" s="7">
         <v>154</v>
       </c>
-      <c r="D91" s="21" t="s">
-        <v>241</v>
+      <c r="D91" s="14" t="s">
+        <v>242</v>
       </c>
       <c r="E91" s="7">
         <v>1</v>
@@ -5744,10 +5767,10 @@
         <v>14000</v>
       </c>
       <c r="H91" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I91" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="J91" s="7"/>
       <c r="K91" s="7">
@@ -5768,8 +5791,8 @@
       <c r="C92" s="7">
         <v>155</v>
       </c>
-      <c r="D92" s="21" t="s">
-        <v>243</v>
+      <c r="D92" s="14" t="s">
+        <v>244</v>
       </c>
       <c r="E92" s="7">
         <v>1</v>
@@ -5781,10 +5804,10 @@
         <v>14000</v>
       </c>
       <c r="H92" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I92" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="J92" s="7" t="s">
         <v>49</v>
@@ -5807,8 +5830,8 @@
       <c r="C93" s="7">
         <v>156</v>
       </c>
-      <c r="D93" s="21" t="s">
-        <v>245</v>
+      <c r="D93" s="14" t="s">
+        <v>246</v>
       </c>
       <c r="E93" s="7">
         <v>1</v>
@@ -5820,10 +5843,10 @@
         <v>14000</v>
       </c>
       <c r="H93" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I93" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="J93" s="7" t="s">
         <v>49</v>
@@ -5850,8 +5873,8 @@
       <c r="C94" s="7">
         <v>157</v>
       </c>
-      <c r="D94" s="21" t="s">
-        <v>247</v>
+      <c r="D94" s="14" t="s">
+        <v>248</v>
       </c>
       <c r="E94" s="7">
         <v>1</v>
@@ -5863,10 +5886,10 @@
         <v>14000</v>
       </c>
       <c r="H94" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I94" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="J94" s="7" t="s">
         <v>49</v>
@@ -5889,8 +5912,8 @@
       <c r="C95" s="7">
         <v>158</v>
       </c>
-      <c r="D95" s="21" t="s">
-        <v>249</v>
+      <c r="D95" s="14" t="s">
+        <v>250</v>
       </c>
       <c r="E95" s="7">
         <v>1</v>
@@ -5902,10 +5925,10 @@
         <v>14000</v>
       </c>
       <c r="H95" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="I95" s="21" t="s">
-        <v>250</v>
+        <v>100</v>
+      </c>
+      <c r="I95" s="14" t="s">
+        <v>251</v>
       </c>
       <c r="J95" s="7" t="s">
         <v>49</v>
@@ -5928,8 +5951,8 @@
       <c r="C96" s="7">
         <v>159</v>
       </c>
-      <c r="D96" s="21" t="s">
-        <v>251</v>
+      <c r="D96" s="14" t="s">
+        <v>252</v>
       </c>
       <c r="E96" s="7">
         <v>1</v>
@@ -5941,10 +5964,10 @@
         <v>14000</v>
       </c>
       <c r="H96" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="I96" s="21" t="s">
-        <v>252</v>
+        <v>100</v>
+      </c>
+      <c r="I96" s="14" t="s">
+        <v>253</v>
       </c>
       <c r="J96" s="7" t="s">
         <v>49</v>
@@ -5967,8 +5990,8 @@
       <c r="C97" s="7">
         <v>160</v>
       </c>
-      <c r="D97" s="21" t="s">
-        <v>253</v>
+      <c r="D97" s="14" t="s">
+        <v>254</v>
       </c>
       <c r="E97" s="7">
         <v>1</v>
@@ -5980,10 +6003,10 @@
         <v>14000</v>
       </c>
       <c r="H97" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="I97" s="21" t="s">
-        <v>254</v>
+        <v>100</v>
+      </c>
+      <c r="I97" s="14" t="s">
+        <v>255</v>
       </c>
       <c r="J97" s="7" t="s">
         <v>49</v>
@@ -6006,8 +6029,8 @@
       <c r="C98" s="7">
         <v>161</v>
       </c>
-      <c r="D98" s="21" t="s">
-        <v>255</v>
+      <c r="D98" s="14" t="s">
+        <v>256</v>
       </c>
       <c r="E98" s="7">
         <v>1</v>
@@ -6019,10 +6042,10 @@
         <v>14000</v>
       </c>
       <c r="H98" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="I98" s="21" t="s">
-        <v>256</v>
+        <v>100</v>
+      </c>
+      <c r="I98" s="14" t="s">
+        <v>257</v>
       </c>
       <c r="J98" s="7" t="s">
         <v>49</v>
@@ -6045,8 +6068,8 @@
       <c r="C99" s="7">
         <v>162</v>
       </c>
-      <c r="D99" s="21" t="s">
-        <v>257</v>
+      <c r="D99" s="14" t="s">
+        <v>258</v>
       </c>
       <c r="E99" s="7">
         <v>1</v>
@@ -6058,10 +6081,10 @@
         <v>14000</v>
       </c>
       <c r="H99" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="I99" s="21" t="s">
-        <v>258</v>
+        <v>100</v>
+      </c>
+      <c r="I99" s="14" t="s">
+        <v>259</v>
       </c>
       <c r="J99" s="7" t="s">
         <v>49</v>
@@ -6084,8 +6107,8 @@
       <c r="C100" s="7">
         <v>163</v>
       </c>
-      <c r="D100" s="21" t="s">
-        <v>259</v>
+      <c r="D100" s="14" t="s">
+        <v>260</v>
       </c>
       <c r="E100" s="7">
         <v>1</v>
@@ -6097,10 +6120,10 @@
         <v>14000</v>
       </c>
       <c r="H100" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="I100" s="21" t="s">
-        <v>260</v>
+        <v>100</v>
+      </c>
+      <c r="I100" s="14" t="s">
+        <v>261</v>
       </c>
       <c r="J100" s="7" t="s">
         <v>49</v>
@@ -6123,8 +6146,8 @@
       <c r="C101" s="7">
         <v>164</v>
       </c>
-      <c r="D101" s="21" t="s">
-        <v>261</v>
+      <c r="D101" s="14" t="s">
+        <v>262</v>
       </c>
       <c r="E101" s="7">
         <v>1</v>
@@ -6136,10 +6159,10 @@
         <v>14000</v>
       </c>
       <c r="H101" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="I101" s="21" t="s">
-        <v>262</v>
+        <v>100</v>
+      </c>
+      <c r="I101" s="14" t="s">
+        <v>263</v>
       </c>
       <c r="J101" s="7" t="s">
         <v>49</v>
@@ -6162,8 +6185,8 @@
       <c r="C102" s="7">
         <v>165</v>
       </c>
-      <c r="D102" s="21" t="s">
-        <v>263</v>
+      <c r="D102" s="14" t="s">
+        <v>264</v>
       </c>
       <c r="E102" s="7">
         <v>1</v>
@@ -6175,10 +6198,10 @@
         <v>14000</v>
       </c>
       <c r="H102" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="I102" s="21" t="s">
-        <v>264</v>
+        <v>100</v>
+      </c>
+      <c r="I102" s="14" t="s">
+        <v>265</v>
       </c>
       <c r="J102" s="7" t="s">
         <v>49</v>
@@ -6201,8 +6224,8 @@
       <c r="C103" s="7">
         <v>166</v>
       </c>
-      <c r="D103" s="22" t="s">
-        <v>265</v>
+      <c r="D103" s="21" t="s">
+        <v>266</v>
       </c>
       <c r="E103" s="7">
         <v>1</v>
@@ -6214,10 +6237,10 @@
         <v>14000</v>
       </c>
       <c r="H103" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="I103" s="21" t="s">
-        <v>266</v>
+        <v>100</v>
+      </c>
+      <c r="I103" s="14" t="s">
+        <v>267</v>
       </c>
       <c r="J103" s="7" t="s">
         <v>49</v>
@@ -6240,8 +6263,8 @@
       <c r="C104" s="7">
         <v>167</v>
       </c>
-      <c r="D104" s="22" t="s">
-        <v>267</v>
+      <c r="D104" s="21" t="s">
+        <v>268</v>
       </c>
       <c r="E104" s="7">
         <v>1</v>
@@ -6253,10 +6276,10 @@
         <v>14000</v>
       </c>
       <c r="H104" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="I104" s="21" t="s">
-        <v>268</v>
+        <v>100</v>
+      </c>
+      <c r="I104" s="14" t="s">
+        <v>269</v>
       </c>
       <c r="J104" s="7" t="s">
         <v>49</v>
@@ -6283,8 +6306,8 @@
       <c r="C105" s="7">
         <v>168</v>
       </c>
-      <c r="D105" s="22" t="s">
-        <v>269</v>
+      <c r="D105" s="21" t="s">
+        <v>270</v>
       </c>
       <c r="E105" s="7">
         <v>1</v>
@@ -6296,10 +6319,10 @@
         <v>14000</v>
       </c>
       <c r="H105" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="I105" s="21" t="s">
-        <v>270</v>
+        <v>100</v>
+      </c>
+      <c r="I105" s="14" t="s">
+        <v>271</v>
       </c>
       <c r="J105" s="7" t="s">
         <v>49</v>
@@ -6326,8 +6349,8 @@
       <c r="C106" s="7">
         <v>169</v>
       </c>
-      <c r="D106" s="22" t="s">
-        <v>271</v>
+      <c r="D106" s="21" t="s">
+        <v>272</v>
       </c>
       <c r="E106" s="7">
         <v>1</v>
@@ -6339,10 +6362,10 @@
         <v>14000</v>
       </c>
       <c r="H106" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="I106" s="21" t="s">
-        <v>272</v>
+        <v>100</v>
+      </c>
+      <c r="I106" s="14" t="s">
+        <v>273</v>
       </c>
       <c r="J106" s="7" t="s">
         <v>49</v>
@@ -6369,8 +6392,8 @@
       <c r="C107" s="7">
         <v>170</v>
       </c>
-      <c r="D107" s="21" t="s">
-        <v>273</v>
+      <c r="D107" s="14" t="s">
+        <v>274</v>
       </c>
       <c r="E107" s="7">
         <v>1</v>
@@ -6382,10 +6405,10 @@
         <v>14000</v>
       </c>
       <c r="H107" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="I107" s="21" t="s">
-        <v>274</v>
+        <v>100</v>
+      </c>
+      <c r="I107" s="14" t="s">
+        <v>275</v>
       </c>
       <c r="J107" s="7" t="s">
         <v>49</v>
@@ -6408,8 +6431,8 @@
       <c r="C108" s="7">
         <v>171</v>
       </c>
-      <c r="D108" s="21" t="s">
-        <v>275</v>
+      <c r="D108" s="14" t="s">
+        <v>276</v>
       </c>
       <c r="E108" s="7">
         <v>1</v>
@@ -6421,10 +6444,10 @@
         <v>14000</v>
       </c>
       <c r="H108" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="I108" s="21" t="s">
-        <v>276</v>
+        <v>100</v>
+      </c>
+      <c r="I108" s="14" t="s">
+        <v>277</v>
       </c>
       <c r="J108" s="7" t="s">
         <v>49</v>
@@ -6447,8 +6470,8 @@
       <c r="C109" s="7">
         <v>172</v>
       </c>
-      <c r="D109" s="21" t="s">
-        <v>277</v>
+      <c r="D109" s="14" t="s">
+        <v>278</v>
       </c>
       <c r="E109" s="7">
         <v>1</v>
@@ -6460,10 +6483,10 @@
         <v>14000</v>
       </c>
       <c r="H109" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="I109" s="21" t="s">
-        <v>278</v>
+        <v>100</v>
+      </c>
+      <c r="I109" s="14" t="s">
+        <v>279</v>
       </c>
       <c r="J109" s="7" t="s">
         <v>49</v>
@@ -6488,7 +6511,7 @@
         <v>180</v>
       </c>
       <c r="D110" s="17" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E110" s="17">
         <v>-1</v>
@@ -6499,7 +6522,7 @@
       </c>
       <c r="H110" s="17"/>
       <c r="I110" s="17" t="s">
-        <v>280</v>
+        <v>40</v>
       </c>
       <c r="J110" s="17" t="s">
         <v>281</v>
@@ -6518,6 +6541,48 @@
       <c r="P110" s="17"/>
       <c r="Q110" s="15"/>
       <c r="R110" s="15"/>
+    </row>
+    <row r="111" s="10" customFormat="1" spans="1:18">
+      <c r="A111" s="15"/>
+      <c r="B111" s="16"/>
+      <c r="C111" s="17">
+        <v>181</v>
+      </c>
+      <c r="D111" s="17" t="s">
+        <v>282</v>
+      </c>
+      <c r="E111" s="17">
+        <v>-1</v>
+      </c>
+      <c r="F111" s="17">
+        <v>14</v>
+      </c>
+      <c r="G111" s="17">
+        <v>1000</v>
+      </c>
+      <c r="H111" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="I111" s="17" t="s">
+        <v>283</v>
+      </c>
+      <c r="J111" s="17" t="s">
+        <v>284</v>
+      </c>
+      <c r="K111" s="17">
+        <v>1000</v>
+      </c>
+      <c r="L111" s="17"/>
+      <c r="M111" s="17"/>
+      <c r="N111" s="17">
+        <v>5000</v>
+      </c>
+      <c r="O111" s="17">
+        <v>1</v>
+      </c>
+      <c r="P111" s="17"/>
+      <c r="Q111" s="15"/>
+      <c r="R111" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6532,7 +6597,7 @@
   <sheetPr/>
   <dimension ref="B1:M50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A23" workbookViewId="0">
       <selection activeCell="A13" sqref="$A13:$XFD13"/>
     </sheetView>
   </sheetViews>
@@ -6552,27 +6617,27 @@
   <sheetData>
     <row r="1" spans="2:12">
       <c r="B1" s="2" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
     </row>
     <row r="2" spans="2:2">
       <c r="B2" s="3" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
     </row>
     <row r="3" spans="2:12">
@@ -6583,25 +6648,25 @@
         <v>5</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
     </row>
     <row r="4" spans="2:8">
@@ -6612,19 +6677,19 @@
         <v>20</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
     </row>
     <row r="5" spans="2:8">
@@ -6658,17 +6723,17 @@
         <v>20</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="5" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
     </row>
     <row r="7" spans="2:13">
@@ -6692,10 +6757,10 @@
         <v>20</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
     </row>
     <row r="8" spans="2:8">
@@ -6908,10 +6973,10 @@
         <v>0</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
     </row>
     <row r="18" spans="2:8">
@@ -7124,10 +7189,10 @@
         <v>30</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
     </row>
     <row r="28" spans="2:8">
@@ -7340,10 +7405,10 @@
         <v>30</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
     </row>
     <row r="38" spans="2:11">
@@ -7367,7 +7432,7 @@
         <v>40</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
     </row>
     <row r="39" spans="2:8">
@@ -7550,7 +7615,7 @@
         <v>1</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G47" s="7">
         <v>300</v>
@@ -7571,7 +7636,7 @@
         <v>1</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="G48" s="7">
         <v>300</v>
@@ -7592,7 +7657,7 @@
         <v>1</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G49" s="7">
         <v>150</v>
@@ -7613,7 +7678,7 @@
         <v>1</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G50" s="7">
         <v>0</v>
@@ -7659,18 +7724,18 @@
   <sheetData>
     <row r="1" spans="2:13">
       <c r="B1" s="2" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
     </row>
     <row r="2" spans="2:2">
       <c r="B2" s="3" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
     </row>
     <row r="3" spans="2:13">
@@ -7681,31 +7746,31 @@
         <v>5</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="K3" s="4" t="s">
         <v>14</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
     </row>
     <row r="4" spans="2:11">
@@ -7716,28 +7781,28 @@
         <v>20</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
     </row>
     <row r="5" spans="2:11">
@@ -7780,25 +7845,25 @@
         <v>20</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="K6" s="5"/>
     </row>
@@ -7824,7 +7889,7 @@
       <c r="J7" s="7"/>
       <c r="K7" s="7"/>
       <c r="M7" s="1" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
     </row>
     <row r="8" spans="2:13">
@@ -7847,7 +7912,7 @@
       <c r="J8" s="7"/>
       <c r="K8" s="7"/>
       <c r="M8" s="1" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
     </row>
     <row r="9" spans="2:13">
@@ -7870,7 +7935,7 @@
       <c r="J9" s="7"/>
       <c r="K9" s="7"/>
       <c r="M9" s="1" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
     </row>
     <row r="10" spans="2:13">
@@ -7895,12 +7960,12 @@
       <c r="J10" s="7"/>
       <c r="K10" s="7"/>
       <c r="M10" s="1" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
     </row>
     <row r="11" spans="2:13">
       <c r="B11" s="6" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="C11" s="7">
         <v>5</v>
@@ -7922,7 +7987,7 @@
       <c r="J11" s="7"/>
       <c r="K11" s="7"/>
       <c r="M11" s="1" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
     </row>
   </sheetData>
@@ -7950,7 +8015,7 @@
     <row r="1" spans="1:5">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -7959,7 +8024,7 @@
     <row r="2" spans="1:5">
       <c r="A2" s="1"/>
       <c r="B2" s="3" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -7974,10 +8039,10 @@
         <v>5</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -7989,10 +8054,10 @@
         <v>20</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -8019,10 +8084,10 @@
         <v>20</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" spans="2:5">
@@ -8031,7 +8096,7 @@
         <v>1</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="E7" s="7">
         <v>147</v>

--- a/配置表/J技能配置表.xlsx
+++ b/配置表/J技能配置表.xlsx
@@ -84,7 +84,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339">
   <si>
     <t>SkillConfig</t>
   </si>
@@ -993,6 +993,18 @@
     <t>AbilityR</t>
   </si>
   <si>
+    <t>伽利略普通射击</t>
+  </si>
+  <si>
+    <t>galiAttack</t>
+  </si>
+  <si>
+    <t>伽利略射击后退</t>
+  </si>
+  <si>
+    <t>galiSkill1</t>
+  </si>
+  <si>
     <t>SkillEffectConfig</t>
   </si>
   <si>
@@ -1148,9 +1160,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -1168,7 +1180,53 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1181,15 +1239,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1202,11 +1276,33 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1226,93 +1322,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1363,55 +1375,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1423,61 +1411,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1495,13 +1429,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1513,13 +1483,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1537,13 +1531,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1585,11 +1597,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1601,45 +1619,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1668,16 +1647,49 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1687,49 +1699,49 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1738,97 +1750,97 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1979,7 +1991,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -2301,12 +2313,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:R111"/>
+  <dimension ref="A1:R113"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="6" topLeftCell="A87" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="I8" sqref="I8"/>
+      <selection pane="bottomLeft" activeCell="I120" sqref="I120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="13.5"/>
@@ -6583,6 +6595,90 @@
       <c r="P111" s="17"/>
       <c r="Q111" s="15"/>
       <c r="R111" s="15"/>
+    </row>
+    <row r="112" s="10" customFormat="1" spans="1:18">
+      <c r="A112" s="15"/>
+      <c r="B112" s="16"/>
+      <c r="C112" s="17">
+        <v>190</v>
+      </c>
+      <c r="D112" s="17" t="s">
+        <v>285</v>
+      </c>
+      <c r="E112" s="17">
+        <v>-1</v>
+      </c>
+      <c r="F112" s="17">
+        <v>14</v>
+      </c>
+      <c r="G112" s="17">
+        <v>1000</v>
+      </c>
+      <c r="H112" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="I112" s="17" t="s">
+        <v>286</v>
+      </c>
+      <c r="J112" s="17" t="s">
+        <v>281</v>
+      </c>
+      <c r="K112" s="17">
+        <v>1000</v>
+      </c>
+      <c r="L112" s="17"/>
+      <c r="M112" s="17"/>
+      <c r="N112" s="17">
+        <v>5000</v>
+      </c>
+      <c r="O112" s="17">
+        <v>1</v>
+      </c>
+      <c r="P112" s="17"/>
+      <c r="Q112" s="15"/>
+      <c r="R112" s="15"/>
+    </row>
+    <row r="113" s="10" customFormat="1" spans="1:18">
+      <c r="A113" s="15"/>
+      <c r="B113" s="16"/>
+      <c r="C113" s="17">
+        <v>191</v>
+      </c>
+      <c r="D113" s="17" t="s">
+        <v>287</v>
+      </c>
+      <c r="E113" s="17">
+        <v>-1</v>
+      </c>
+      <c r="F113" s="17">
+        <v>14</v>
+      </c>
+      <c r="G113" s="17">
+        <v>1000</v>
+      </c>
+      <c r="H113" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="I113" s="17" t="s">
+        <v>288</v>
+      </c>
+      <c r="J113" s="17" t="s">
+        <v>281</v>
+      </c>
+      <c r="K113" s="17">
+        <v>1000</v>
+      </c>
+      <c r="L113" s="17"/>
+      <c r="M113" s="17"/>
+      <c r="N113" s="17">
+        <v>5000</v>
+      </c>
+      <c r="O113" s="17">
+        <v>1</v>
+      </c>
+      <c r="P113" s="17"/>
+      <c r="Q113" s="15"/>
+      <c r="R113" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6617,27 +6713,27 @@
   <sheetData>
     <row r="1" spans="2:12">
       <c r="B1" s="2" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
     </row>
     <row r="2" spans="2:2">
       <c r="B2" s="3" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
     </row>
     <row r="3" spans="2:12">
@@ -6648,25 +6744,25 @@
         <v>5</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
     </row>
     <row r="4" spans="2:8">
@@ -6677,19 +6773,19 @@
         <v>20</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
     </row>
     <row r="5" spans="2:8">
@@ -6723,17 +6819,17 @@
         <v>20</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="5" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
     </row>
     <row r="7" spans="2:13">
@@ -6757,10 +6853,10 @@
         <v>20</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
     </row>
     <row r="8" spans="2:8">
@@ -6973,10 +7069,10 @@
         <v>0</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
     </row>
     <row r="18" spans="2:8">
@@ -7189,10 +7285,10 @@
         <v>30</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
     </row>
     <row r="28" spans="2:8">
@@ -7405,10 +7501,10 @@
         <v>30</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
     </row>
     <row r="38" spans="2:11">
@@ -7432,7 +7528,7 @@
         <v>40</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
     </row>
     <row r="39" spans="2:8">
@@ -7678,7 +7774,7 @@
         <v>1</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="G50" s="7">
         <v>0</v>
@@ -7724,18 +7820,18 @@
   <sheetData>
     <row r="1" spans="2:13">
       <c r="B1" s="2" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
     </row>
     <row r="2" spans="2:2">
       <c r="B2" s="3" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
     </row>
     <row r="3" spans="2:13">
@@ -7746,31 +7842,31 @@
         <v>5</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="K3" s="4" t="s">
         <v>14</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
     </row>
     <row r="4" spans="2:11">
@@ -7781,28 +7877,28 @@
         <v>20</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
     </row>
     <row r="5" spans="2:11">
@@ -7845,25 +7941,25 @@
         <v>20</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="K6" s="5"/>
     </row>
@@ -7889,7 +7985,7 @@
       <c r="J7" s="7"/>
       <c r="K7" s="7"/>
       <c r="M7" s="1" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
     </row>
     <row r="8" spans="2:13">
@@ -7912,7 +8008,7 @@
       <c r="J8" s="7"/>
       <c r="K8" s="7"/>
       <c r="M8" s="1" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
     </row>
     <row r="9" spans="2:13">
@@ -7935,7 +8031,7 @@
       <c r="J9" s="7"/>
       <c r="K9" s="7"/>
       <c r="M9" s="1" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
     </row>
     <row r="10" spans="2:13">
@@ -7960,12 +8056,12 @@
       <c r="J10" s="7"/>
       <c r="K10" s="7"/>
       <c r="M10" s="1" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
     </row>
     <row r="11" spans="2:13">
       <c r="B11" s="6" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="C11" s="7">
         <v>5</v>
@@ -7987,7 +8083,7 @@
       <c r="J11" s="7"/>
       <c r="K11" s="7"/>
       <c r="M11" s="1" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
     </row>
   </sheetData>
@@ -8015,7 +8111,7 @@
     <row r="1" spans="1:5">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -8024,7 +8120,7 @@
     <row r="2" spans="1:5">
       <c r="A2" s="1"/>
       <c r="B2" s="3" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -8039,10 +8135,10 @@
         <v>5</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -8054,10 +8150,10 @@
         <v>20</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -8084,10 +8180,10 @@
         <v>20</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" spans="2:5">
@@ -8096,7 +8192,7 @@
         <v>1</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="E7" s="7">
         <v>147</v>

--- a/配置表/J技能配置表.xlsx
+++ b/配置表/J技能配置表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="12630" tabRatio="468"/>
+    <workbookView windowWidth="28695" windowHeight="12630" tabRatio="468" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="技能基础表" sheetId="1" r:id="rId1"/>
@@ -84,7 +84,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340">
   <si>
     <t>SkillConfig</t>
   </si>
@@ -1078,6 +1078,9 @@
   </si>
   <si>
     <t>电系武器伤害</t>
+  </si>
+  <si>
+    <t>伽利略</t>
   </si>
   <si>
     <t>SkillLearnConfig</t>
@@ -2315,10 +2318,10 @@
   <sheetPr/>
   <dimension ref="A1:R113"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A87" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="I120" sqref="I120"/>
+      <selection pane="bottomLeft" activeCell="A112" sqref="$A112:$XFD112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="13.5"/>
@@ -6691,10 +6694,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="B1:M50"/>
+  <dimension ref="B1:XFD51"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="A13" sqref="$A13:$XFD13"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="F51" sqref="F51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -7782,6 +7785,50 @@
       <c r="H50" s="7">
         <v>0</v>
       </c>
+    </row>
+    <row r="51" s="1" customFormat="1" spans="2:16384">
+      <c r="B51" s="6"/>
+      <c r="C51" s="7">
+        <v>190001</v>
+      </c>
+      <c r="D51" s="7">
+        <v>190</v>
+      </c>
+      <c r="E51" s="7">
+        <v>1</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="G51" s="7">
+        <v>100</v>
+      </c>
+      <c r="H51" s="7">
+        <v>20</v>
+      </c>
+      <c r="I51" s="1"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="L51" s="1"/>
+      <c r="M51" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="XEQ51"/>
+      <c r="XER51"/>
+      <c r="XES51"/>
+      <c r="XET51"/>
+      <c r="XEU51"/>
+      <c r="XEV51"/>
+      <c r="XEW51"/>
+      <c r="XEX51"/>
+      <c r="XEY51"/>
+      <c r="XEZ51"/>
+      <c r="XFA51"/>
+      <c r="XFB51"/>
+      <c r="XFC51"/>
+      <c r="XFD51"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7820,18 +7867,18 @@
   <sheetData>
     <row r="1" spans="2:13">
       <c r="B1" s="2" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="2" spans="2:2">
       <c r="B2" s="3" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="3" spans="2:13">
@@ -7842,31 +7889,31 @@
         <v>5</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="K3" s="4" t="s">
         <v>14</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="4" spans="2:11">
@@ -7880,25 +7927,25 @@
         <v>301</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="5" spans="2:11">
@@ -7944,22 +7991,22 @@
         <v>301</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="K6" s="5"/>
     </row>
@@ -7985,7 +8032,7 @@
       <c r="J7" s="7"/>
       <c r="K7" s="7"/>
       <c r="M7" s="1" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="8" spans="2:13">
@@ -8008,7 +8055,7 @@
       <c r="J8" s="7"/>
       <c r="K8" s="7"/>
       <c r="M8" s="1" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="9" spans="2:13">
@@ -8061,7 +8108,7 @@
     </row>
     <row r="11" spans="2:13">
       <c r="B11" s="6" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C11" s="7">
         <v>5</v>
@@ -8111,7 +8158,7 @@
     <row r="1" spans="1:5">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -8120,7 +8167,7 @@
     <row r="2" spans="1:5">
       <c r="A2" s="1"/>
       <c r="B2" s="3" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -8135,7 +8182,7 @@
         <v>5</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>295</v>
@@ -8153,7 +8200,7 @@
         <v>301</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -8183,7 +8230,7 @@
         <v>301</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" spans="2:5">
@@ -8192,7 +8239,7 @@
         <v>1</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="E7" s="7">
         <v>147</v>

--- a/配置表/J技能配置表.xlsx
+++ b/配置表/J技能配置表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="12630" tabRatio="468" activeTab="1"/>
+    <workbookView windowWidth="28695" windowHeight="12630" tabRatio="468"/>
   </bookViews>
   <sheets>
     <sheet name="技能基础表" sheetId="1" r:id="rId1"/>
@@ -207,7 +207,7 @@
     <t>普通近战攻击</t>
   </si>
   <si>
-    <t>aliAttack</t>
+    <t>explosive</t>
   </si>
   <si>
     <t>attack</t>
@@ -334,9 +334,6 @@
   </si>
   <si>
     <t>skill_explosiveshot</t>
-  </si>
-  <si>
-    <t>explosive</t>
   </si>
   <si>
     <t>special_longpao</t>
@@ -981,6 +978,9 @@
     <t>阿狸攻击技能</t>
   </si>
   <si>
+    <t>aliAttack</t>
+  </si>
+  <si>
     <t>Basic</t>
   </si>
   <si>
@@ -1163,10 +1163,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -1189,9 +1189,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1199,6 +1198,14 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1213,15 +1220,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1236,7 +1235,30 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1251,46 +1273,26 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1309,25 +1311,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1378,7 +1378,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1396,43 +1456,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1444,25 +1486,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1474,13 +1498,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1492,7 +1516,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1504,31 +1528,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1600,28 +1600,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1641,6 +1624,47 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1653,8 +1677,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1673,162 +1697,138 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1994,7 +1994,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -2318,10 +2318,10 @@
   <sheetPr/>
   <dimension ref="A1:R113"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A87" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A112" sqref="$A112:$XFD112"/>
+      <selection pane="bottomLeft" activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="13.5"/>
@@ -3020,10 +3020,10 @@
         <v>82</v>
       </c>
       <c r="I19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="J19" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="K19" s="7">
         <v>1000</v>
@@ -3048,7 +3048,7 @@
         <v>11</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E20" s="7">
         <v>-1</v>
@@ -3060,10 +3060,10 @@
         <v>0</v>
       </c>
       <c r="H20" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="I20" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="I20" s="7" t="s">
-        <v>87</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>49</v>
@@ -3087,7 +3087,7 @@
         <v>12</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E21" s="7">
         <v>-1</v>
@@ -3098,7 +3098,7 @@
       </c>
       <c r="H21" s="7"/>
       <c r="I21" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>41</v>
@@ -3122,7 +3122,7 @@
         <v>13</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E22" s="7">
         <v>-1</v>
@@ -3133,7 +3133,7 @@
       </c>
       <c r="H22" s="7"/>
       <c r="I22" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J22" s="7"/>
       <c r="K22" s="7">
@@ -3155,7 +3155,7 @@
         <v>14</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E23" s="7">
         <v>-1</v>
@@ -3167,10 +3167,10 @@
         <v>0</v>
       </c>
       <c r="H23" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="I23" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="I23" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>49</v>
@@ -3194,7 +3194,7 @@
         <v>15</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E24" s="7">
         <v>-1</v>
@@ -3206,10 +3206,10 @@
         <v>0</v>
       </c>
       <c r="H24" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="I24" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="I24" s="7" t="s">
-        <v>97</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>49</v>
@@ -3219,7 +3219,7 @@
       </c>
       <c r="L24" s="7"/>
       <c r="M24" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N24" s="7">
         <v>5000</v>
@@ -3237,7 +3237,7 @@
         <v>16</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E25" s="7">
         <v>-1</v>
@@ -3249,10 +3249,10 @@
         <v>20000</v>
       </c>
       <c r="H25" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="I25" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="I25" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="J25" s="7" t="s">
         <v>49</v>
@@ -3276,7 +3276,7 @@
         <v>17</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E26" s="7">
         <v>-1</v>
@@ -3288,10 +3288,10 @@
         <v>0</v>
       </c>
       <c r="H26" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="I26" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="I26" s="7" t="s">
-        <v>104</v>
       </c>
       <c r="J26" s="7" t="s">
         <v>49</v>
@@ -3315,7 +3315,7 @@
         <v>18</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E27" s="7">
         <v>-1</v>
@@ -3326,7 +3326,7 @@
       </c>
       <c r="H27" s="7"/>
       <c r="I27" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>41</v>
@@ -3351,7 +3351,7 @@
         <v>19</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E28" s="17">
         <v>-1</v>
@@ -3362,7 +3362,7 @@
       </c>
       <c r="H28" s="17"/>
       <c r="I28" s="17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J28" s="17" t="s">
         <v>41</v>
@@ -3388,7 +3388,7 @@
         <v>20</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E29" s="7">
         <v>-1</v>
@@ -3399,10 +3399,10 @@
       </c>
       <c r="H29" s="7"/>
       <c r="I29" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="J29" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="J29" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="K29" s="7">
         <v>1000</v>
@@ -3423,7 +3423,7 @@
         <v>21</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E30" s="7">
         <v>-1</v>
@@ -3434,10 +3434,10 @@
       </c>
       <c r="H30" s="7"/>
       <c r="I30" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="J30" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="J30" s="7" t="s">
-        <v>114</v>
       </c>
       <c r="K30" s="7">
         <v>1000</v>
@@ -3458,7 +3458,7 @@
         <v>22</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E31" s="7">
         <v>-1</v>
@@ -3469,10 +3469,10 @@
       </c>
       <c r="H31" s="7"/>
       <c r="I31" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K31" s="7">
         <v>1000</v>
@@ -3493,7 +3493,7 @@
         <v>23</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E32" s="7">
         <v>-1</v>
@@ -3504,10 +3504,10 @@
       </c>
       <c r="H32" s="7"/>
       <c r="I32" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K32" s="7">
         <v>1000</v>
@@ -3528,7 +3528,7 @@
         <v>24</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E33" s="7">
         <v>-1</v>
@@ -3539,10 +3539,10 @@
       </c>
       <c r="H33" s="7"/>
       <c r="I33" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K33" s="7">
         <v>1000</v>
@@ -3563,7 +3563,7 @@
         <v>25</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E34" s="7">
         <v>-1</v>
@@ -3574,10 +3574,10 @@
       </c>
       <c r="H34" s="7"/>
       <c r="I34" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K34" s="7">
         <v>1000</v>
@@ -3598,7 +3598,7 @@
         <v>26</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E35" s="7">
         <v>-1</v>
@@ -3633,7 +3633,7 @@
         <v>27</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E36" s="7">
         <v>-1</v>
@@ -3644,7 +3644,7 @@
       </c>
       <c r="H36" s="7"/>
       <c r="I36" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J36" s="7" t="s">
         <v>41</v>
@@ -3668,7 +3668,7 @@
         <v>100</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E37" s="7">
         <v>-1</v>
@@ -3679,10 +3679,10 @@
       </c>
       <c r="H37" s="7"/>
       <c r="I37" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K37" s="7">
         <v>1000</v>
@@ -3703,7 +3703,7 @@
         <v>101</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E38" s="7">
         <v>-1</v>
@@ -3714,7 +3714,7 @@
       </c>
       <c r="H38" s="7"/>
       <c r="I38" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J38" s="7" t="s">
         <v>41</v>
@@ -3738,7 +3738,7 @@
         <v>102</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E39" s="7">
         <v>-1</v>
@@ -3749,7 +3749,7 @@
       </c>
       <c r="H39" s="7"/>
       <c r="I39" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J39" s="7" t="s">
         <v>41</v>
@@ -3773,22 +3773,22 @@
         <v>103</v>
       </c>
       <c r="D40" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="E40" s="7">
+        <v>-1</v>
+      </c>
+      <c r="F40" s="7">
+        <v>0</v>
+      </c>
+      <c r="G40" s="7">
+        <v>0</v>
+      </c>
+      <c r="H40" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="E40" s="7">
-        <v>-1</v>
-      </c>
-      <c r="F40" s="7">
-        <v>0</v>
-      </c>
-      <c r="G40" s="7">
-        <v>0</v>
-      </c>
-      <c r="H40" s="7" t="s">
+      <c r="I40" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="I40" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="J40" s="7" t="s">
         <v>49</v>
@@ -3812,7 +3812,7 @@
         <v>104</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E41" s="7">
         <v>-1</v>
@@ -3823,7 +3823,7 @@
       </c>
       <c r="H41" s="7"/>
       <c r="I41" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J41" s="7" t="s">
         <v>41</v>
@@ -3847,7 +3847,7 @@
         <v>105</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E42" s="7">
         <v>-1</v>
@@ -3858,7 +3858,7 @@
       </c>
       <c r="H42" s="7"/>
       <c r="I42" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J42" s="7" t="s">
         <v>41</v>
@@ -3882,7 +3882,7 @@
         <v>106</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E43" s="7">
         <v>-1</v>
@@ -3894,20 +3894,20 @@
         <v>0</v>
       </c>
       <c r="H43" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="I43" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="I43" s="7" t="s">
-        <v>97</v>
-      </c>
       <c r="J43" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K43" s="7">
         <v>2000</v>
       </c>
       <c r="L43" s="7"/>
       <c r="M43" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N43" s="7">
         <v>5000</v>
@@ -3925,7 +3925,7 @@
         <v>107</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E44" s="7">
         <v>-1</v>
@@ -3936,17 +3936,17 @@
       </c>
       <c r="H44" s="7"/>
       <c r="I44" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K44" s="7">
         <v>2000</v>
       </c>
       <c r="L44" s="7"/>
       <c r="M44" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="N44" s="7">
         <v>5000</v>
@@ -3964,7 +3964,7 @@
         <v>108</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E45" s="7">
         <v>-1</v>
@@ -3976,10 +3976,10 @@
         <v>20000</v>
       </c>
       <c r="H45" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I45" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J45" s="7" t="s">
         <v>41</v>
@@ -3989,16 +3989,16 @@
       </c>
       <c r="L45" s="7"/>
       <c r="M45" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="N45" s="7">
+        <v>5000</v>
+      </c>
+      <c r="O45" s="7">
+        <v>0</v>
+      </c>
+      <c r="P45" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="N45" s="7">
-        <v>5000</v>
-      </c>
-      <c r="O45" s="7">
-        <v>0</v>
-      </c>
-      <c r="P45" s="7" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="46" spans="2:16">
@@ -4007,7 +4007,7 @@
         <v>109</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E46" s="7">
         <v>-1</v>
@@ -4018,7 +4018,7 @@
       </c>
       <c r="H46" s="7"/>
       <c r="I46" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J46" s="7" t="s">
         <v>41</v>
@@ -4028,16 +4028,16 @@
       </c>
       <c r="L46" s="7"/>
       <c r="M46" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="N46" s="7">
+        <v>5000</v>
+      </c>
+      <c r="O46" s="7">
+        <v>0</v>
+      </c>
+      <c r="P46" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="N46" s="7">
-        <v>5000</v>
-      </c>
-      <c r="O46" s="7">
-        <v>0</v>
-      </c>
-      <c r="P46" s="7" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="47" spans="2:16">
@@ -4046,7 +4046,7 @@
         <v>110</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E47" s="7">
         <v>-1</v>
@@ -4057,7 +4057,7 @@
       </c>
       <c r="H47" s="7"/>
       <c r="I47" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J47" s="7" t="s">
         <v>41</v>
@@ -4067,16 +4067,16 @@
       </c>
       <c r="L47" s="7"/>
       <c r="M47" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="N47" s="7">
+        <v>5000</v>
+      </c>
+      <c r="O47" s="7">
+        <v>0</v>
+      </c>
+      <c r="P47" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="N47" s="7">
-        <v>5000</v>
-      </c>
-      <c r="O47" s="7">
-        <v>0</v>
-      </c>
-      <c r="P47" s="7" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="48" spans="2:16">
@@ -4085,7 +4085,7 @@
         <v>111</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E48" s="7">
         <v>-1</v>
@@ -4096,7 +4096,7 @@
       </c>
       <c r="H48" s="7"/>
       <c r="I48" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J48" s="7" t="s">
         <v>49</v>
@@ -4106,7 +4106,7 @@
       </c>
       <c r="L48" s="7"/>
       <c r="M48" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N48" s="7">
         <v>5000</v>
@@ -4124,7 +4124,7 @@
         <v>112</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E49" s="7">
         <v>-1</v>
@@ -4135,7 +4135,7 @@
       </c>
       <c r="H49" s="7"/>
       <c r="I49" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J49" s="7" t="s">
         <v>41</v>
@@ -4145,7 +4145,7 @@
       </c>
       <c r="L49" s="7"/>
       <c r="M49" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="N49" s="7">
         <v>5000</v>
@@ -4161,7 +4161,7 @@
         <v>113</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E50" s="7">
         <v>-1</v>
@@ -4172,7 +4172,7 @@
       </c>
       <c r="H50" s="7"/>
       <c r="I50" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J50" s="7" t="s">
         <v>41</v>
@@ -4181,19 +4181,19 @@
         <v>1000</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="M50" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="N50" s="7">
+        <v>5000</v>
+      </c>
+      <c r="O50" s="7">
+        <v>0</v>
+      </c>
+      <c r="P50" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="N50" s="7">
-        <v>5000</v>
-      </c>
-      <c r="O50" s="7">
-        <v>0</v>
-      </c>
-      <c r="P50" s="7" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="51" spans="2:16">
@@ -4202,7 +4202,7 @@
         <v>114</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E51" s="7">
         <v>-1</v>
@@ -4214,20 +4214,20 @@
         <v>0</v>
       </c>
       <c r="H51" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I51" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K51" s="7">
         <v>1500</v>
       </c>
       <c r="L51" s="7"/>
       <c r="M51" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N51" s="7">
         <v>5000</v>
@@ -4245,7 +4245,7 @@
         <v>115</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E52" s="7">
         <v>-1</v>
@@ -4256,17 +4256,17 @@
       </c>
       <c r="H52" s="7"/>
       <c r="I52" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K52" s="7">
         <v>2000</v>
       </c>
       <c r="L52" s="7"/>
       <c r="M52" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="N52" s="7">
         <v>5000</v>
@@ -4284,7 +4284,7 @@
         <v>116</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E53" s="7">
         <v>-1</v>
@@ -4295,7 +4295,7 @@
       </c>
       <c r="H53" s="7"/>
       <c r="I53" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="J53" s="7" t="s">
         <v>41</v>
@@ -4305,16 +4305,16 @@
       </c>
       <c r="L53" s="7"/>
       <c r="M53" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="N53" s="7">
+        <v>5000</v>
+      </c>
+      <c r="O53" s="7">
+        <v>0</v>
+      </c>
+      <c r="P53" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="N53" s="7">
-        <v>5000</v>
-      </c>
-      <c r="O53" s="7">
-        <v>0</v>
-      </c>
-      <c r="P53" s="7" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="54" spans="2:16">
@@ -4323,7 +4323,7 @@
         <v>117</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E54" s="7">
         <v>-1</v>
@@ -4334,7 +4334,7 @@
       </c>
       <c r="H54" s="7"/>
       <c r="I54" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J54" s="7" t="s">
         <v>41</v>
@@ -4344,7 +4344,7 @@
       </c>
       <c r="L54" s="7"/>
       <c r="M54" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="N54" s="7">
         <v>5000</v>
@@ -4353,7 +4353,7 @@
         <v>0</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="55" spans="2:16">
@@ -4362,7 +4362,7 @@
         <v>118</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E55" s="7">
         <v>-1</v>
@@ -4373,7 +4373,7 @@
       </c>
       <c r="H55" s="7"/>
       <c r="I55" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J55" s="7" t="s">
         <v>41</v>
@@ -4383,7 +4383,7 @@
       </c>
       <c r="L55" s="7"/>
       <c r="M55" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="N55" s="7">
         <v>5000</v>
@@ -4392,7 +4392,7 @@
         <v>0</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="56" spans="2:16">
@@ -4401,7 +4401,7 @@
         <v>119</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E56" s="7">
         <v>-1</v>
@@ -4412,7 +4412,7 @@
       </c>
       <c r="H56" s="7"/>
       <c r="I56" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J56" s="7" t="s">
         <v>41</v>
@@ -4422,7 +4422,7 @@
       </c>
       <c r="L56" s="7"/>
       <c r="M56" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="N56" s="7">
         <v>5000</v>
@@ -4431,7 +4431,7 @@
         <v>0</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="57" spans="2:16">
@@ -4440,7 +4440,7 @@
         <v>120</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E57" s="7">
         <v>-1</v>
@@ -4451,7 +4451,7 @@
       </c>
       <c r="H57" s="7"/>
       <c r="I57" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J57" s="7" t="s">
         <v>41</v>
@@ -4461,16 +4461,16 @@
       </c>
       <c r="L57" s="7"/>
       <c r="M57" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="N57" s="7">
+        <v>5000</v>
+      </c>
+      <c r="O57" s="7">
+        <v>0</v>
+      </c>
+      <c r="P57" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="N57" s="7">
-        <v>5000</v>
-      </c>
-      <c r="O57" s="7">
-        <v>0</v>
-      </c>
-      <c r="P57" s="7" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="58" spans="2:16">
@@ -4479,7 +4479,7 @@
         <v>121</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E58" s="7">
         <v>-1</v>
@@ -4490,7 +4490,7 @@
       </c>
       <c r="H58" s="7"/>
       <c r="I58" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J58" s="7" t="s">
         <v>41</v>
@@ -4518,7 +4518,7 @@
         <v>122</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E59" s="7">
         <v>-1</v>
@@ -4529,7 +4529,7 @@
       </c>
       <c r="H59" s="7"/>
       <c r="I59" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J59" s="7" t="s">
         <v>41</v>
@@ -4539,7 +4539,7 @@
       </c>
       <c r="L59" s="7"/>
       <c r="M59" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="N59" s="7">
         <v>5000</v>
@@ -4557,7 +4557,7 @@
         <v>123</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E60" s="7">
         <v>-1</v>
@@ -4568,7 +4568,7 @@
       </c>
       <c r="H60" s="7"/>
       <c r="I60" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J60" s="7" t="s">
         <v>41</v>
@@ -4578,7 +4578,7 @@
       </c>
       <c r="L60" s="7"/>
       <c r="M60" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="N60" s="7">
         <v>5000</v>
@@ -4596,7 +4596,7 @@
         <v>124</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E61" s="7">
         <v>-1</v>
@@ -4607,17 +4607,17 @@
       </c>
       <c r="H61" s="7"/>
       <c r="I61" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J61" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K61" s="7">
         <v>1000</v>
       </c>
       <c r="L61" s="7"/>
       <c r="M61" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="N61" s="7">
         <v>5000</v>
@@ -4635,7 +4635,7 @@
         <v>125</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E62" s="7">
         <v>-1</v>
@@ -4646,7 +4646,7 @@
       </c>
       <c r="H62" s="7"/>
       <c r="I62" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="J62" s="7" t="s">
         <v>41</v>
@@ -4655,10 +4655,10 @@
         <v>1000</v>
       </c>
       <c r="L62" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="M62" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="N62" s="7">
         <v>5000</v>
@@ -4676,7 +4676,7 @@
         <v>126</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E63" s="7">
         <v>-1</v>
@@ -4687,7 +4687,7 @@
       </c>
       <c r="H63" s="7"/>
       <c r="I63" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="J63" s="7" t="s">
         <v>41</v>
@@ -4696,10 +4696,10 @@
         <v>1000</v>
       </c>
       <c r="L63" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M63" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="N63" s="7">
         <v>5000</v>
@@ -4717,7 +4717,7 @@
         <v>127</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E64" s="7">
         <v>-1</v>
@@ -4728,7 +4728,7 @@
       </c>
       <c r="H64" s="7"/>
       <c r="I64" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J64" s="7" t="s">
         <v>41</v>
@@ -4738,7 +4738,7 @@
       </c>
       <c r="L64" s="7"/>
       <c r="M64" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="N64" s="7">
         <v>5000</v>
@@ -4756,7 +4756,7 @@
         <v>128</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E65" s="7">
         <v>-1</v>
@@ -4767,7 +4767,7 @@
       </c>
       <c r="H65" s="7"/>
       <c r="I65" s="7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="J65" s="7" t="s">
         <v>41</v>
@@ -4777,7 +4777,7 @@
       </c>
       <c r="L65" s="7"/>
       <c r="M65" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="N65" s="7">
         <v>5000</v>
@@ -4795,7 +4795,7 @@
         <v>129</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E66" s="7">
         <v>-1</v>
@@ -4806,7 +4806,7 @@
       </c>
       <c r="H66" s="7"/>
       <c r="I66" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="J66" s="7" t="s">
         <v>41</v>
@@ -4816,7 +4816,7 @@
       </c>
       <c r="L66" s="7"/>
       <c r="M66" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="N66" s="7">
         <v>5000</v>
@@ -4834,7 +4834,7 @@
         <v>130</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E67" s="7">
         <v>-1</v>
@@ -4845,7 +4845,7 @@
       </c>
       <c r="H67" s="7"/>
       <c r="I67" s="7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J67" s="7" t="s">
         <v>41</v>
@@ -4855,7 +4855,7 @@
       </c>
       <c r="L67" s="7"/>
       <c r="M67" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="N67" s="7">
         <v>5000</v>
@@ -4864,7 +4864,7 @@
         <v>0</v>
       </c>
       <c r="P67" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="68" spans="2:16">
@@ -4873,7 +4873,7 @@
         <v>131</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E68" s="7">
         <v>-1</v>
@@ -4884,7 +4884,7 @@
       </c>
       <c r="H68" s="7"/>
       <c r="I68" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="J68" s="7" t="s">
         <v>41</v>
@@ -4901,7 +4901,7 @@
         <v>0</v>
       </c>
       <c r="P68" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="69" spans="2:16">
@@ -4910,7 +4910,7 @@
         <v>132</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E69" s="7">
         <v>-1</v>
@@ -4922,10 +4922,10 @@
         <v>20000</v>
       </c>
       <c r="H69" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I69" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J69" s="7" t="s">
         <v>41</v>
@@ -4934,19 +4934,19 @@
         <v>1000</v>
       </c>
       <c r="L69" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="M69" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="N69" s="7">
+        <v>5000</v>
+      </c>
+      <c r="O69" s="7">
+        <v>0</v>
+      </c>
+      <c r="P69" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="N69" s="7">
-        <v>5000</v>
-      </c>
-      <c r="O69" s="7">
-        <v>0</v>
-      </c>
-      <c r="P69" s="7" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="70" spans="2:16">
@@ -4955,7 +4955,7 @@
         <v>133</v>
       </c>
       <c r="D70" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E70" s="7">
         <v>-1</v>
@@ -4966,7 +4966,7 @@
       </c>
       <c r="H70" s="7"/>
       <c r="I70" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="J70" s="7" t="s">
         <v>41</v>
@@ -4976,7 +4976,7 @@
       </c>
       <c r="L70" s="7"/>
       <c r="M70" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="N70" s="7">
         <v>5000</v>
@@ -4985,7 +4985,7 @@
         <v>0</v>
       </c>
       <c r="P70" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="71" spans="2:16">
@@ -4994,7 +4994,7 @@
         <v>134</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E71" s="7">
         <v>-1</v>
@@ -5005,17 +5005,17 @@
       </c>
       <c r="H71" s="7"/>
       <c r="I71" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="J71" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K71" s="7">
         <v>3000</v>
       </c>
       <c r="L71" s="7"/>
       <c r="M71" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="N71" s="7">
         <v>5000</v>
@@ -5033,7 +5033,7 @@
         <v>135</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E72" s="7">
         <v>-1</v>
@@ -5044,7 +5044,7 @@
       </c>
       <c r="H72" s="7"/>
       <c r="I72" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="J72" s="7" t="s">
         <v>41</v>
@@ -5054,7 +5054,7 @@
       </c>
       <c r="L72" s="7"/>
       <c r="M72" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="N72" s="7">
         <v>5000</v>
@@ -5070,7 +5070,7 @@
         <v>136</v>
       </c>
       <c r="D73" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E73" s="7">
         <v>-1</v>
@@ -5082,10 +5082,10 @@
         <v>0</v>
       </c>
       <c r="H73" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="I73" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="I73" s="7" t="s">
-        <v>104</v>
       </c>
       <c r="J73" s="7" t="s">
         <v>41</v>
@@ -5109,7 +5109,7 @@
         <v>137</v>
       </c>
       <c r="D74" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E74" s="7">
         <v>-1</v>
@@ -5120,7 +5120,7 @@
       </c>
       <c r="H74" s="7"/>
       <c r="I74" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="J74" s="7" t="s">
         <v>41</v>
@@ -5130,7 +5130,7 @@
       </c>
       <c r="L74" s="7"/>
       <c r="M74" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="N74" s="7">
         <v>5000</v>
@@ -5148,7 +5148,7 @@
         <v>138</v>
       </c>
       <c r="D75" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E75" s="7">
         <v>-1</v>
@@ -5159,7 +5159,7 @@
       </c>
       <c r="H75" s="7"/>
       <c r="I75" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="J75" s="7" t="s">
         <v>41</v>
@@ -5169,16 +5169,16 @@
       </c>
       <c r="L75" s="7"/>
       <c r="M75" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="N75" s="7">
+        <v>5000</v>
+      </c>
+      <c r="O75" s="7">
+        <v>0</v>
+      </c>
+      <c r="P75" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="N75" s="7">
-        <v>5000</v>
-      </c>
-      <c r="O75" s="7">
-        <v>0</v>
-      </c>
-      <c r="P75" s="7" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="76" spans="2:16">
@@ -5187,7 +5187,7 @@
         <v>139</v>
       </c>
       <c r="D76" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E76" s="7">
         <v>-1</v>
@@ -5198,7 +5198,7 @@
       </c>
       <c r="H76" s="7"/>
       <c r="I76" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J76" s="7" t="s">
         <v>41</v>
@@ -5208,16 +5208,16 @@
       </c>
       <c r="L76" s="7"/>
       <c r="M76" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="N76" s="7">
+        <v>5000</v>
+      </c>
+      <c r="O76" s="7">
+        <v>0</v>
+      </c>
+      <c r="P76" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="N76" s="7">
-        <v>5000</v>
-      </c>
-      <c r="O76" s="7">
-        <v>0</v>
-      </c>
-      <c r="P76" s="7" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="77" spans="2:16">
@@ -5226,7 +5226,7 @@
         <v>140</v>
       </c>
       <c r="D77" s="7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E77" s="7">
         <v>-1</v>
@@ -5237,7 +5237,7 @@
       </c>
       <c r="H77" s="7"/>
       <c r="I77" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="J77" s="7" t="s">
         <v>41</v>
@@ -5247,16 +5247,16 @@
       </c>
       <c r="L77" s="7"/>
       <c r="M77" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="N77" s="7">
+        <v>5000</v>
+      </c>
+      <c r="O77" s="7">
+        <v>0</v>
+      </c>
+      <c r="P77" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="N77" s="7">
-        <v>5000</v>
-      </c>
-      <c r="O77" s="7">
-        <v>0</v>
-      </c>
-      <c r="P77" s="7" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="78" spans="2:16">
@@ -5265,7 +5265,7 @@
         <v>141</v>
       </c>
       <c r="D78" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E78" s="7">
         <v>-1</v>
@@ -5276,7 +5276,7 @@
       </c>
       <c r="H78" s="7"/>
       <c r="I78" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="J78" s="7" t="s">
         <v>41</v>
@@ -5304,7 +5304,7 @@
         <v>142</v>
       </c>
       <c r="D79" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E79" s="7">
         <v>-1</v>
@@ -5315,7 +5315,7 @@
       </c>
       <c r="H79" s="7"/>
       <c r="I79" s="7" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="J79" s="7" t="s">
         <v>41</v>
@@ -5332,7 +5332,7 @@
         <v>0</v>
       </c>
       <c r="P79" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="80" spans="2:16">
@@ -5341,7 +5341,7 @@
         <v>143</v>
       </c>
       <c r="D80" s="7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E80" s="7">
         <v>-1</v>
@@ -5353,10 +5353,10 @@
         <v>0</v>
       </c>
       <c r="H80" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I80" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J80" s="7" t="s">
         <v>49</v>
@@ -5366,7 +5366,7 @@
       </c>
       <c r="L80" s="7"/>
       <c r="M80" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N80" s="7">
         <v>5000</v>
@@ -5384,7 +5384,7 @@
         <v>144</v>
       </c>
       <c r="D81" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E81" s="7">
         <v>-1</v>
@@ -5395,7 +5395,7 @@
       </c>
       <c r="H81" s="7"/>
       <c r="I81" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="J81" s="7" t="s">
         <v>41</v>
@@ -5405,16 +5405,16 @@
       </c>
       <c r="L81" s="7"/>
       <c r="M81" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="N81" s="7">
+        <v>5000</v>
+      </c>
+      <c r="O81" s="7">
+        <v>0</v>
+      </c>
+      <c r="P81" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="N81" s="7">
-        <v>5000</v>
-      </c>
-      <c r="O81" s="7">
-        <v>0</v>
-      </c>
-      <c r="P81" s="7" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="82" spans="2:16">
@@ -5423,7 +5423,7 @@
         <v>145</v>
       </c>
       <c r="D82" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E82" s="7">
         <v>-1</v>
@@ -5434,7 +5434,7 @@
       </c>
       <c r="H82" s="7"/>
       <c r="I82" s="7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="J82" s="7" t="s">
         <v>41</v>
@@ -5458,7 +5458,7 @@
         <v>146</v>
       </c>
       <c r="D83" s="7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E83" s="7">
         <v>-1</v>
@@ -5469,7 +5469,7 @@
       </c>
       <c r="H83" s="7"/>
       <c r="I83" s="7" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J83" s="7" t="s">
         <v>41</v>
@@ -5493,7 +5493,7 @@
         <v>147</v>
       </c>
       <c r="D84" s="7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E84" s="7">
         <v>-1</v>
@@ -5504,7 +5504,7 @@
       </c>
       <c r="H84" s="7"/>
       <c r="I84" s="7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="J84" s="7" t="s">
         <v>41</v>
@@ -5514,7 +5514,7 @@
       </c>
       <c r="L84" s="7"/>
       <c r="M84" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="N84" s="7">
         <v>5000</v>
@@ -5523,7 +5523,7 @@
         <v>0</v>
       </c>
       <c r="P84" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="85" ht="12.95" customHeight="1" spans="2:16">
@@ -5532,7 +5532,7 @@
         <v>148</v>
       </c>
       <c r="D85" s="7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E85" s="7">
         <v>-1</v>
@@ -5543,7 +5543,7 @@
       </c>
       <c r="H85" s="7"/>
       <c r="I85" s="7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="J85" s="7" t="s">
         <v>41</v>
@@ -5553,16 +5553,16 @@
       </c>
       <c r="L85" s="7"/>
       <c r="M85" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="N85" s="7">
+        <v>5000</v>
+      </c>
+      <c r="O85" s="7">
+        <v>0</v>
+      </c>
+      <c r="P85" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="N85" s="7">
-        <v>5000</v>
-      </c>
-      <c r="O85" s="7">
-        <v>0</v>
-      </c>
-      <c r="P85" s="7" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="86" spans="2:16">
@@ -5571,7 +5571,7 @@
         <v>149</v>
       </c>
       <c r="D86" s="7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E86" s="7">
         <v>-1</v>
@@ -5582,7 +5582,7 @@
       </c>
       <c r="H86" s="7"/>
       <c r="I86" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="J86" s="7" t="s">
         <v>49</v>
@@ -5591,10 +5591,10 @@
         <v>1000</v>
       </c>
       <c r="L86" s="7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M86" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="N86" s="7">
         <v>5000</v>
@@ -5603,7 +5603,7 @@
         <v>0</v>
       </c>
       <c r="P86" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="87" spans="2:16">
@@ -5612,7 +5612,7 @@
         <v>150</v>
       </c>
       <c r="D87" s="7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E87" s="7">
         <v>-1</v>
@@ -5623,7 +5623,7 @@
       </c>
       <c r="H87" s="7"/>
       <c r="I87" s="7" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="J87" s="7" t="s">
         <v>49</v>
@@ -5633,7 +5633,7 @@
       </c>
       <c r="L87" s="7"/>
       <c r="M87" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="N87" s="7">
         <v>5000</v>
@@ -5642,7 +5642,7 @@
         <v>0</v>
       </c>
       <c r="P87" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="88" spans="2:16">
@@ -5651,7 +5651,7 @@
         <v>151</v>
       </c>
       <c r="D88" s="7" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E88" s="7">
         <v>-1</v>
@@ -5662,7 +5662,7 @@
       </c>
       <c r="H88" s="7"/>
       <c r="I88" s="7" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J88" s="7"/>
       <c r="K88" s="7">
@@ -5670,7 +5670,7 @@
       </c>
       <c r="L88" s="7"/>
       <c r="M88" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="N88" s="7">
         <v>5000</v>
@@ -5679,7 +5679,7 @@
         <v>0</v>
       </c>
       <c r="P88" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="89" spans="2:16">
@@ -5688,7 +5688,7 @@
         <v>152</v>
       </c>
       <c r="D89" s="14" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E89" s="7">
         <v>-1</v>
@@ -5699,7 +5699,7 @@
       </c>
       <c r="H89" s="7"/>
       <c r="I89" s="14" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J89" s="7"/>
       <c r="K89" s="7">
@@ -5707,7 +5707,7 @@
       </c>
       <c r="L89" s="7"/>
       <c r="M89" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="N89" s="7">
         <v>5000</v>
@@ -5716,7 +5716,7 @@
         <v>0</v>
       </c>
       <c r="P89" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="90" spans="2:16">
@@ -5725,7 +5725,7 @@
         <v>153</v>
       </c>
       <c r="D90" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E90" s="7">
         <v>-1</v>
@@ -5740,7 +5740,7 @@
         <v>53</v>
       </c>
       <c r="I90" s="14" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="J90" s="7" t="s">
         <v>49</v>
@@ -5770,7 +5770,7 @@
         <v>154</v>
       </c>
       <c r="D91" s="14" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E91" s="7">
         <v>1</v>
@@ -5782,10 +5782,10 @@
         <v>14000</v>
       </c>
       <c r="H91" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I91" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="J91" s="7"/>
       <c r="K91" s="7">
@@ -5807,7 +5807,7 @@
         <v>155</v>
       </c>
       <c r="D92" s="14" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E92" s="7">
         <v>1</v>
@@ -5819,10 +5819,10 @@
         <v>14000</v>
       </c>
       <c r="H92" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I92" s="7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="J92" s="7" t="s">
         <v>49</v>
@@ -5846,7 +5846,7 @@
         <v>156</v>
       </c>
       <c r="D93" s="14" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E93" s="7">
         <v>1</v>
@@ -5858,10 +5858,10 @@
         <v>14000</v>
       </c>
       <c r="H93" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I93" s="7" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="J93" s="7" t="s">
         <v>49</v>
@@ -5889,7 +5889,7 @@
         <v>157</v>
       </c>
       <c r="D94" s="14" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E94" s="7">
         <v>1</v>
@@ -5901,10 +5901,10 @@
         <v>14000</v>
       </c>
       <c r="H94" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I94" s="7" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="J94" s="7" t="s">
         <v>49</v>
@@ -5928,7 +5928,7 @@
         <v>158</v>
       </c>
       <c r="D95" s="14" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E95" s="7">
         <v>1</v>
@@ -5940,10 +5940,10 @@
         <v>14000</v>
       </c>
       <c r="H95" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I95" s="14" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="J95" s="7" t="s">
         <v>49</v>
@@ -5967,7 +5967,7 @@
         <v>159</v>
       </c>
       <c r="D96" s="14" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E96" s="7">
         <v>1</v>
@@ -5979,10 +5979,10 @@
         <v>14000</v>
       </c>
       <c r="H96" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I96" s="14" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="J96" s="7" t="s">
         <v>49</v>
@@ -6006,7 +6006,7 @@
         <v>160</v>
       </c>
       <c r="D97" s="14" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E97" s="7">
         <v>1</v>
@@ -6018,10 +6018,10 @@
         <v>14000</v>
       </c>
       <c r="H97" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I97" s="14" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="J97" s="7" t="s">
         <v>49</v>
@@ -6045,7 +6045,7 @@
         <v>161</v>
       </c>
       <c r="D98" s="14" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E98" s="7">
         <v>1</v>
@@ -6057,10 +6057,10 @@
         <v>14000</v>
       </c>
       <c r="H98" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I98" s="14" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="J98" s="7" t="s">
         <v>49</v>
@@ -6084,7 +6084,7 @@
         <v>162</v>
       </c>
       <c r="D99" s="14" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E99" s="7">
         <v>1</v>
@@ -6096,10 +6096,10 @@
         <v>14000</v>
       </c>
       <c r="H99" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I99" s="14" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="J99" s="7" t="s">
         <v>49</v>
@@ -6123,7 +6123,7 @@
         <v>163</v>
       </c>
       <c r="D100" s="14" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E100" s="7">
         <v>1</v>
@@ -6135,10 +6135,10 @@
         <v>14000</v>
       </c>
       <c r="H100" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I100" s="14" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="J100" s="7" t="s">
         <v>49</v>
@@ -6162,7 +6162,7 @@
         <v>164</v>
       </c>
       <c r="D101" s="14" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E101" s="7">
         <v>1</v>
@@ -6174,10 +6174,10 @@
         <v>14000</v>
       </c>
       <c r="H101" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I101" s="14" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="J101" s="7" t="s">
         <v>49</v>
@@ -6201,7 +6201,7 @@
         <v>165</v>
       </c>
       <c r="D102" s="14" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E102" s="7">
         <v>1</v>
@@ -6213,10 +6213,10 @@
         <v>14000</v>
       </c>
       <c r="H102" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I102" s="14" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="J102" s="7" t="s">
         <v>49</v>
@@ -6240,7 +6240,7 @@
         <v>166</v>
       </c>
       <c r="D103" s="21" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E103" s="7">
         <v>1</v>
@@ -6252,10 +6252,10 @@
         <v>14000</v>
       </c>
       <c r="H103" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I103" s="14" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="J103" s="7" t="s">
         <v>49</v>
@@ -6279,7 +6279,7 @@
         <v>167</v>
       </c>
       <c r="D104" s="21" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E104" s="7">
         <v>1</v>
@@ -6291,10 +6291,10 @@
         <v>14000</v>
       </c>
       <c r="H104" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I104" s="14" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="J104" s="7" t="s">
         <v>49</v>
@@ -6322,7 +6322,7 @@
         <v>168</v>
       </c>
       <c r="D105" s="21" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E105" s="7">
         <v>1</v>
@@ -6334,10 +6334,10 @@
         <v>14000</v>
       </c>
       <c r="H105" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I105" s="14" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="J105" s="7" t="s">
         <v>49</v>
@@ -6365,7 +6365,7 @@
         <v>169</v>
       </c>
       <c r="D106" s="21" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E106" s="7">
         <v>1</v>
@@ -6377,10 +6377,10 @@
         <v>14000</v>
       </c>
       <c r="H106" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I106" s="14" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="J106" s="7" t="s">
         <v>49</v>
@@ -6408,7 +6408,7 @@
         <v>170</v>
       </c>
       <c r="D107" s="14" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E107" s="7">
         <v>1</v>
@@ -6420,10 +6420,10 @@
         <v>14000</v>
       </c>
       <c r="H107" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I107" s="14" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="J107" s="7" t="s">
         <v>49</v>
@@ -6447,7 +6447,7 @@
         <v>171</v>
       </c>
       <c r="D108" s="14" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E108" s="7">
         <v>1</v>
@@ -6459,10 +6459,10 @@
         <v>14000</v>
       </c>
       <c r="H108" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I108" s="14" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="J108" s="7" t="s">
         <v>49</v>
@@ -6486,7 +6486,7 @@
         <v>172</v>
       </c>
       <c r="D109" s="14" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E109" s="7">
         <v>1</v>
@@ -6498,10 +6498,10 @@
         <v>14000</v>
       </c>
       <c r="H109" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I109" s="14" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="J109" s="7" t="s">
         <v>49</v>
@@ -6526,7 +6526,7 @@
         <v>180</v>
       </c>
       <c r="D110" s="17" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E110" s="17">
         <v>-1</v>
@@ -6537,7 +6537,7 @@
       </c>
       <c r="H110" s="17"/>
       <c r="I110" s="17" t="s">
-        <v>40</v>
+        <v>280</v>
       </c>
       <c r="J110" s="17" t="s">
         <v>281</v>
@@ -6576,7 +6576,7 @@
         <v>1000</v>
       </c>
       <c r="H111" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I111" s="17" t="s">
         <v>283</v>
@@ -6618,7 +6618,7 @@
         <v>1000</v>
       </c>
       <c r="H112" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I112" s="17" t="s">
         <v>286</v>
@@ -6660,7 +6660,7 @@
         <v>1000</v>
       </c>
       <c r="H113" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I113" s="17" t="s">
         <v>288</v>
@@ -6696,7 +6696,7 @@
   <sheetPr/>
   <dimension ref="B1:XFD51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F51" sqref="F51"/>
     </sheetView>
   </sheetViews>
@@ -7714,7 +7714,7 @@
         <v>1</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G47" s="7">
         <v>300</v>
@@ -7735,7 +7735,7 @@
         <v>1</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G48" s="7">
         <v>300</v>
@@ -7756,7 +7756,7 @@
         <v>1</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G49" s="7">
         <v>150</v>
@@ -7806,12 +7806,9 @@
       <c r="H51" s="7">
         <v>20</v>
       </c>
-      <c r="I51" s="1"/>
-      <c r="J51" s="1"/>
       <c r="K51" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="L51" s="1"/>
       <c r="M51" s="1" t="s">
         <v>306</v>
       </c>

--- a/配置表/J技能配置表.xlsx
+++ b/配置表/J技能配置表.xlsx
@@ -84,7 +84,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341">
   <si>
     <t>SkillConfig</t>
   </si>
@@ -405,7 +405,7 @@
     <t>beam</t>
   </si>
   <si>
-    <t>怪物单体攻击技能</t>
+    <t>Moba单体近战攻击技能</t>
   </si>
   <si>
     <t>monsterSingle</t>
@@ -1005,6 +1005,9 @@
     <t>galiSkill1</t>
   </si>
   <si>
+    <t>Moba单体远程攻击技能</t>
+  </si>
+  <si>
     <t>SkillEffectConfig</t>
   </si>
   <si>
@@ -1164,9 +1167,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -1182,30 +1185,9 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1220,9 +1202,54 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1242,7 +1269,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1256,53 +1283,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -1311,9 +1291,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1326,8 +1312,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1378,19 +1381,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1402,25 +1411,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1432,13 +1435,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1456,37 +1459,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1504,19 +1495,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1528,37 +1549,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1600,11 +1603,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1624,17 +1633,44 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1664,186 +1700,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2316,12 +2319,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:R113"/>
+  <dimension ref="A1:R114"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="6" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="I8" sqref="I8"/>
+      <selection pane="bottomLeft" activeCell="I114" sqref="I114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="13.5"/>
@@ -6682,6 +6685,44 @@
       <c r="P113" s="17"/>
       <c r="Q113" s="15"/>
       <c r="R113" s="15"/>
+    </row>
+    <row r="114" s="10" customFormat="1" spans="1:18">
+      <c r="A114" s="15"/>
+      <c r="B114" s="16"/>
+      <c r="C114" s="17">
+        <v>192</v>
+      </c>
+      <c r="D114" s="17" t="s">
+        <v>289</v>
+      </c>
+      <c r="E114" s="17">
+        <v>-1</v>
+      </c>
+      <c r="F114" s="17"/>
+      <c r="G114" s="17">
+        <v>0</v>
+      </c>
+      <c r="H114" s="17"/>
+      <c r="I114" s="17" t="s">
+        <v>286</v>
+      </c>
+      <c r="J114" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="K114" s="17">
+        <v>1000</v>
+      </c>
+      <c r="L114" s="17"/>
+      <c r="M114" s="17"/>
+      <c r="N114" s="17">
+        <v>5000</v>
+      </c>
+      <c r="O114" s="17">
+        <v>0</v>
+      </c>
+      <c r="P114" s="17"/>
+      <c r="Q114" s="15"/>
+      <c r="R114" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6716,27 +6757,27 @@
   <sheetData>
     <row r="1" spans="2:12">
       <c r="B1" s="2" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="2" spans="2:2">
       <c r="B2" s="3" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="3" spans="2:12">
@@ -6747,25 +6788,25 @@
         <v>5</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="4" spans="2:8">
@@ -6776,19 +6817,19 @@
         <v>20</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="5" spans="2:8">
@@ -6822,17 +6863,17 @@
         <v>20</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="5" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="7" spans="2:13">
@@ -6856,10 +6897,10 @@
         <v>20</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="8" spans="2:8">
@@ -7072,10 +7113,10 @@
         <v>0</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="18" spans="2:8">
@@ -7288,10 +7329,10 @@
         <v>30</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="28" spans="2:8">
@@ -7504,10 +7545,10 @@
         <v>30</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="38" spans="2:11">
@@ -7531,7 +7572,7 @@
         <v>40</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="39" spans="2:8">
@@ -7777,7 +7818,7 @@
         <v>1</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="G50" s="7">
         <v>0</v>
@@ -7798,7 +7839,7 @@
         <v>1</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="G51" s="7">
         <v>100</v>
@@ -7807,10 +7848,10 @@
         <v>20</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="M51" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="XEQ51"/>
       <c r="XER51"/>
@@ -7864,18 +7905,18 @@
   <sheetData>
     <row r="1" spans="2:13">
       <c r="B1" s="2" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="2" spans="2:2">
       <c r="B2" s="3" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="3" spans="2:13">
@@ -7886,31 +7927,31 @@
         <v>5</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="K3" s="4" t="s">
         <v>14</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="4" spans="2:11">
@@ -7921,28 +7962,28 @@
         <v>20</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="5" spans="2:11">
@@ -7985,25 +8026,25 @@
         <v>20</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="K6" s="5"/>
     </row>
@@ -8029,7 +8070,7 @@
       <c r="J7" s="7"/>
       <c r="K7" s="7"/>
       <c r="M7" s="1" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="8" spans="2:13">
@@ -8052,7 +8093,7 @@
       <c r="J8" s="7"/>
       <c r="K8" s="7"/>
       <c r="M8" s="1" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="9" spans="2:13">
@@ -8075,7 +8116,7 @@
       <c r="J9" s="7"/>
       <c r="K9" s="7"/>
       <c r="M9" s="1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="10" spans="2:13">
@@ -8100,12 +8141,12 @@
       <c r="J10" s="7"/>
       <c r="K10" s="7"/>
       <c r="M10" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="11" spans="2:13">
       <c r="B11" s="6" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C11" s="7">
         <v>5</v>
@@ -8127,7 +8168,7 @@
       <c r="J11" s="7"/>
       <c r="K11" s="7"/>
       <c r="M11" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
   </sheetData>
@@ -8155,7 +8196,7 @@
     <row r="1" spans="1:5">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -8164,7 +8205,7 @@
     <row r="2" spans="1:5">
       <c r="A2" s="1"/>
       <c r="B2" s="3" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -8179,10 +8220,10 @@
         <v>5</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -8194,10 +8235,10 @@
         <v>20</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -8224,10 +8265,10 @@
         <v>20</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" spans="2:5">
@@ -8236,7 +8277,7 @@
         <v>1</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E7" s="7">
         <v>147</v>

--- a/配置表/J技能配置表.xlsx
+++ b/配置表/J技能配置表.xlsx
@@ -84,7 +84,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342">
   <si>
     <t>SkillConfig</t>
   </si>
@@ -1006,6 +1006,9 @@
   </si>
   <si>
     <t>Moba单体远程攻击技能</t>
+  </si>
+  <si>
+    <t>Moba小炮</t>
   </si>
   <si>
     <t>SkillEffectConfig</t>
@@ -1185,9 +1188,9 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1200,6 +1203,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -1208,76 +1226,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1299,6 +1250,37 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -1306,23 +1288,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1331,6 +1320,20 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1387,7 +1390,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1399,31 +1402,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1435,7 +1414,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1459,13 +1456,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1483,7 +1474,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1495,13 +1486,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1513,7 +1522,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1531,25 +1540,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1561,7 +1558,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1603,6 +1606,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1636,16 +1648,18 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1666,26 +1680,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1700,6 +1694,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1708,10 +1711,10 @@
     <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1720,133 +1723,133 @@
     <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2319,12 +2322,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:R114"/>
+  <dimension ref="A1:R115"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="I114" sqref="I114"/>
+      <selection pane="bottomLeft" activeCell="C115" sqref="C115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="13.5"/>
@@ -6723,6 +6726,44 @@
       <c r="P114" s="17"/>
       <c r="Q114" s="15"/>
       <c r="R114" s="15"/>
+    </row>
+    <row r="115" s="10" customFormat="1" spans="1:18">
+      <c r="A115" s="15"/>
+      <c r="B115" s="16"/>
+      <c r="C115" s="17">
+        <v>193</v>
+      </c>
+      <c r="D115" s="17" t="s">
+        <v>290</v>
+      </c>
+      <c r="E115" s="17">
+        <v>-1</v>
+      </c>
+      <c r="F115" s="17"/>
+      <c r="G115" s="17">
+        <v>0</v>
+      </c>
+      <c r="H115" s="17"/>
+      <c r="I115" s="17" t="s">
+        <v>286</v>
+      </c>
+      <c r="J115" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="K115" s="17">
+        <v>1000</v>
+      </c>
+      <c r="L115" s="17"/>
+      <c r="M115" s="17"/>
+      <c r="N115" s="17">
+        <v>5000</v>
+      </c>
+      <c r="O115" s="17">
+        <v>0</v>
+      </c>
+      <c r="P115" s="17"/>
+      <c r="Q115" s="15"/>
+      <c r="R115" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6757,27 +6798,27 @@
   <sheetData>
     <row r="1" spans="2:12">
       <c r="B1" s="2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="2" spans="2:2">
       <c r="B2" s="3" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="3" spans="2:12">
@@ -6788,25 +6829,25 @@
         <v>5</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="4" spans="2:8">
@@ -6817,19 +6858,19 @@
         <v>20</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="5" spans="2:8">
@@ -6863,17 +6904,17 @@
         <v>20</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="5" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="7" spans="2:13">
@@ -6897,10 +6938,10 @@
         <v>20</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="8" spans="2:8">
@@ -7113,10 +7154,10 @@
         <v>0</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="18" spans="2:8">
@@ -7329,10 +7370,10 @@
         <v>30</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="28" spans="2:8">
@@ -7545,10 +7586,10 @@
         <v>30</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="38" spans="2:11">
@@ -7572,7 +7613,7 @@
         <v>40</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="39" spans="2:8">
@@ -7818,7 +7859,7 @@
         <v>1</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="G50" s="7">
         <v>0</v>
@@ -7839,7 +7880,7 @@
         <v>1</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="G51" s="7">
         <v>100</v>
@@ -7848,10 +7889,10 @@
         <v>20</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="M51" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="XEQ51"/>
       <c r="XER51"/>
@@ -7905,18 +7946,18 @@
   <sheetData>
     <row r="1" spans="2:13">
       <c r="B1" s="2" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="2" spans="2:2">
       <c r="B2" s="3" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="3" spans="2:13">
@@ -7927,31 +7968,31 @@
         <v>5</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="K3" s="4" t="s">
         <v>14</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="4" spans="2:11">
@@ -7962,28 +8003,28 @@
         <v>20</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="5" spans="2:11">
@@ -8026,25 +8067,25 @@
         <v>20</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="K6" s="5"/>
     </row>
@@ -8070,7 +8111,7 @@
       <c r="J7" s="7"/>
       <c r="K7" s="7"/>
       <c r="M7" s="1" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="8" spans="2:13">
@@ -8093,7 +8134,7 @@
       <c r="J8" s="7"/>
       <c r="K8" s="7"/>
       <c r="M8" s="1" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="9" spans="2:13">
@@ -8116,7 +8157,7 @@
       <c r="J9" s="7"/>
       <c r="K9" s="7"/>
       <c r="M9" s="1" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="10" spans="2:13">
@@ -8141,12 +8182,12 @@
       <c r="J10" s="7"/>
       <c r="K10" s="7"/>
       <c r="M10" s="1" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="11" spans="2:13">
       <c r="B11" s="6" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C11" s="7">
         <v>5</v>
@@ -8168,7 +8209,7 @@
       <c r="J11" s="7"/>
       <c r="K11" s="7"/>
       <c r="M11" s="1" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
   </sheetData>
@@ -8196,7 +8237,7 @@
     <row r="1" spans="1:5">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -8205,7 +8246,7 @@
     <row r="2" spans="1:5">
       <c r="A2" s="1"/>
       <c r="B2" s="3" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -8220,10 +8261,10 @@
         <v>5</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -8235,10 +8276,10 @@
         <v>20</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -8265,10 +8306,10 @@
         <v>20</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" spans="2:5">
@@ -8277,7 +8318,7 @@
         <v>1</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="E7" s="7">
         <v>147</v>
